--- a/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 3.xlsx
+++ b/Data Analysis - Introducao a series temporais e analises/Fundamentos Data Analysis 3.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>A</t>
   </si>
@@ -30,45 +30,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Desvio Padrão</t>
-  </si>
-  <si>
-    <t>A Jumping Cats cresceu em 2014:</t>
-  </si>
-  <si>
-    <t>Mês:</t>
-  </si>
-  <si>
-    <t>Vendas (R$)</t>
-  </si>
-  <si>
-    <t>Crescimento:</t>
-  </si>
-  <si>
-    <t>Teste:</t>
-  </si>
-  <si>
-    <t>Quanto a Jumping Cats cresceu EM MÉDIA em 2014 ?</t>
-  </si>
-  <si>
-    <t>Produto</t>
-  </si>
-  <si>
-    <t>Média Geométrica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A </t>
-  </si>
-  <si>
-    <t>Média Aritimética</t>
-  </si>
-  <si>
-    <t>Média Harmônica</t>
   </si>
   <si>
     <t>Valor mínimo</t>
@@ -80,7 +41,13 @@
     <t>2 Quartil</t>
   </si>
   <si>
+    <t>Média</t>
+  </si>
+  <si>
     <t>Mediana</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
   </si>
   <si>
     <t>3 Quartil</t>
@@ -107,22 +74,46 @@
     <t>Variância</t>
   </si>
   <si>
+    <t>A Jumping Cats cresceu em 2014:</t>
+  </si>
+  <si>
+    <t>Mês:</t>
+  </si>
+  <si>
+    <t>Vendas (R$)</t>
+  </si>
+  <si>
+    <t>Crescimento:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>Média Aritimética</t>
+  </si>
+  <si>
+    <t>Teste:</t>
+  </si>
+  <si>
+    <t>Média Geométrica</t>
+  </si>
+  <si>
+    <t>Média Harmônica</t>
+  </si>
+  <si>
+    <t>Quanto a Jumping Cats cresceu EM MÉDIA em 2014 ?</t>
+  </si>
+  <si>
+    <t>Produto</t>
+  </si>
+  <si>
+    <t>Media Geometrica</t>
+  </si>
+  <si>
     <t>Média ARITIMÉTICA</t>
   </si>
   <si>
     <t>Valores:</t>
-  </si>
-  <si>
-    <t>Média aritimética:</t>
-  </si>
-  <si>
-    <t>Acumulativo:</t>
-  </si>
-  <si>
-    <t>Acumulado (média)</t>
-  </si>
-  <si>
-    <t>Média GEOMÉTRICA</t>
   </si>
   <si>
     <t>Meses</t>
@@ -138,6 +129,18 @@
   </si>
   <si>
     <t>Churn(%)</t>
+  </si>
+  <si>
+    <t>Média aritimética:</t>
+  </si>
+  <si>
+    <t>Acumulativo:</t>
+  </si>
+  <si>
+    <t>Acumulado (média)</t>
+  </si>
+  <si>
+    <t>Média GEOMÉTRICA</t>
   </si>
   <si>
     <t>Clientes Ativos (Cohort relativo à novos clientes de jan/2014)</t>
@@ -178,6 +181,12 @@
   <si>
     <t>Velocidade (KM/h)</t>
   </si>
+  <si>
+    <t>Velocidade (km/h)</t>
+  </si>
+  <si>
+    <t>2o Quartil / Mediana</t>
+  </si>
 </sst>
 </file>
 
@@ -199,10 +208,10 @@
     <font>
       <b/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +221,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border/>
     <border>
       <top style="thin">
@@ -245,53 +254,88 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="167" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -353,29 +397,31 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="19.57"/>
     <col customWidth="1" min="2" max="2" width="17.86"/>
-    <col customWidth="1" min="3" max="3" width="22.14"/>
+    <col customWidth="1" hidden="1" min="3" max="3" width="22.14"/>
     <col customWidth="1" min="4" max="4" width="17.57"/>
     <col customWidth="1" min="5" max="5" width="13.71"/>
-    <col customWidth="1" min="6" max="6" width="16.0"/>
+    <col customWidth="1" min="6" max="6" width="18.86"/>
     <col customWidth="1" min="7" max="7" width="16.86"/>
+    <col customWidth="1" min="8" max="8" width="16.0"/>
+    <col customWidth="1" min="9" max="9" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C1" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>29.0</v>
       </c>
       <c r="B2" s="16">
@@ -391,7 +437,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>27.0</v>
       </c>
       <c r="B3" s="16">
@@ -407,7 +453,7 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>105.0</v>
       </c>
       <c r="B4" s="16">
@@ -423,7 +469,7 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>70.0</v>
       </c>
       <c r="B5" s="16">
@@ -439,7 +485,7 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>120.0</v>
       </c>
       <c r="B6" s="16">
@@ -455,7 +501,7 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>85.0</v>
       </c>
       <c r="B7" s="16">
@@ -471,7 +517,7 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>38.0</v>
       </c>
       <c r="B8" s="16">
@@ -487,7 +533,7 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>26.0</v>
       </c>
       <c r="B9" s="16">
@@ -503,7 +549,7 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>24.0</v>
       </c>
       <c r="B10" s="16">
@@ -519,7 +565,7 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>21.0</v>
       </c>
       <c r="B11" s="16">
@@ -535,7 +581,7 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>33.0</v>
       </c>
       <c r="B12" s="16">
@@ -549,12 +595,12 @@
         <f t="shared" si="2"/>
         <v>50.58473144</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>32.0</v>
       </c>
       <c r="B13" s="16">
@@ -570,7 +616,7 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>52.0</v>
       </c>
       <c r="B14" s="16">
@@ -586,7 +632,7 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>36.0</v>
       </c>
       <c r="B15" s="16">
@@ -602,7 +648,7 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>53.0</v>
       </c>
       <c r="B16" s="16">
@@ -618,7 +664,7 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>18.0</v>
       </c>
       <c r="B17" s="16">
@@ -634,7 +680,7 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>13.0</v>
       </c>
       <c r="B18" s="16">
@@ -650,7 +696,7 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>68.0</v>
       </c>
       <c r="B19" s="16">
@@ -666,7 +712,7 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>77.0</v>
       </c>
       <c r="B20" s="16">
@@ -682,7 +728,7 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>66.0</v>
       </c>
       <c r="B21" s="16">
@@ -698,7 +744,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>51.0</v>
       </c>
       <c r="B22" s="16">
@@ -714,7 +760,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>94.0</v>
       </c>
       <c r="B23" s="16">
@@ -730,7 +776,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>51.0</v>
       </c>
       <c r="B24" s="16">
@@ -746,7 +792,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>99.0</v>
       </c>
       <c r="B25" s="16">
@@ -762,7 +808,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>44.0</v>
       </c>
       <c r="B26" s="16">
@@ -778,7 +824,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>50.0</v>
       </c>
       <c r="B27" s="16">
@@ -794,7 +840,7 @@
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>11.0</v>
       </c>
       <c r="B28" s="16">
@@ -810,7 +856,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>87.0</v>
       </c>
       <c r="B29" s="16">
@@ -826,7 +872,7 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>55.0</v>
       </c>
       <c r="B30" s="16">
@@ -842,7 +888,7 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>21.0</v>
       </c>
       <c r="B31" s="16">
@@ -858,7 +904,7 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>33.0</v>
       </c>
       <c r="B32" s="16">
@@ -874,7 +920,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>96.0</v>
       </c>
       <c r="B33" s="16">
@@ -890,7 +936,7 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>16.0</v>
       </c>
       <c r="B34" s="16">
@@ -906,7 +952,7 @@
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>103.0</v>
       </c>
       <c r="B35" s="16">
@@ -922,7 +968,7 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>21.0</v>
       </c>
       <c r="B36" s="16">
@@ -938,7 +984,7 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>43.0</v>
       </c>
       <c r="B37" s="16">
@@ -954,7 +1000,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>72.0</v>
       </c>
       <c r="B38" s="16">
@@ -970,7 +1016,7 @@
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>64.0</v>
       </c>
       <c r="B39" s="16">
@@ -986,7 +1032,7 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>18.0</v>
       </c>
       <c r="B40" s="16">
@@ -1002,7 +1048,7 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>43.0</v>
       </c>
       <c r="B41" s="16">
@@ -1018,7 +1064,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>72.0</v>
       </c>
       <c r="B42" s="16">
@@ -1034,7 +1080,7 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>26.0</v>
       </c>
       <c r="B43" s="16">
@@ -1053,7 +1099,7 @@
       <c r="G43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>60.0</v>
       </c>
       <c r="B44" s="16">
@@ -1067,12 +1113,12 @@
         <f t="shared" si="2"/>
         <v>45.4249569</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="20"/>
       <c r="G44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>45.0</v>
       </c>
       <c r="B45" s="16">
@@ -1091,7 +1137,7 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>100.0</v>
       </c>
       <c r="B46" s="16">
@@ -1108,10 +1154,10 @@
       <c r="E46" s="16"/>
       <c r="F46" s="20"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>78.0</v>
       </c>
       <c r="B47" s="16">
@@ -1130,7 +1176,7 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>60.0</v>
       </c>
       <c r="B48" s="16">
@@ -1144,12 +1190,12 @@
         <f t="shared" si="2"/>
         <v>44.90915443</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="20"/>
       <c r="G48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>71.0</v>
       </c>
       <c r="B49" s="16">
@@ -1163,12 +1209,12 @@
         <f t="shared" si="2"/>
         <v>63.44862544</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="20"/>
       <c r="G49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>108.0</v>
       </c>
       <c r="B50" s="16">
@@ -1187,7 +1233,7 @@
       <c r="G50" s="26"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>37.0</v>
       </c>
       <c r="B51" s="16">
@@ -1201,10 +1247,10 @@
         <f t="shared" si="2"/>
         <v>47.15841511</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>23.0</v>
       </c>
       <c r="B52" s="16">
@@ -1220,7 +1266,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>69.0</v>
       </c>
       <c r="B53" s="16">
@@ -1236,7 +1282,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>89.0</v>
       </c>
       <c r="B54" s="16">
@@ -1252,7 +1298,7 @@
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>107.0</v>
       </c>
       <c r="B55" s="16">
@@ -1268,7 +1314,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>48.0</v>
       </c>
       <c r="B56" s="16">
@@ -1284,7 +1330,7 @@
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>87.0</v>
       </c>
       <c r="B57" s="16">
@@ -1298,9 +1344,19 @@
         <f t="shared" si="2"/>
         <v>44.45339567</v>
       </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>50.0</v>
       </c>
       <c r="B58" s="16">
@@ -1314,9 +1370,24 @@
         <f t="shared" si="2"/>
         <v>19.04322073</v>
       </c>
+      <c r="F58" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58:H58" si="3">MIN(A:A)</f>
+        <v>10</v>
+      </c>
+      <c r="H58" s="20">
+        <f t="shared" si="3"/>
+        <v>8.768051115</v>
+      </c>
+      <c r="I58" s="23">
+        <f>MIN(D:D)</f>
+        <v>14.80273812</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>82.0</v>
       </c>
       <c r="B59" s="16">
@@ -1330,9 +1401,24 @@
         <f t="shared" si="2"/>
         <v>46.57311181</v>
       </c>
+      <c r="F59" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="16">
+        <f t="shared" ref="G59:H59" si="4">QUARTILE(A:A,1)</f>
+        <v>35.25</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="4"/>
+        <v>47.46745412</v>
+      </c>
+      <c r="I59" s="24">
+        <f>QUARTILE(D:D,1)</f>
+        <v>40.46002122</v>
+      </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>26.0</v>
       </c>
       <c r="B60" s="16">
@@ -1346,9 +1432,24 @@
         <f t="shared" si="2"/>
         <v>48.30632126</v>
       </c>
+      <c r="F60" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="16">
+        <f t="shared" ref="G60:H60" si="5">QUARTILE(A:A,2)</f>
+        <v>60.5</v>
+      </c>
+      <c r="H60" s="20">
+        <f t="shared" si="5"/>
+        <v>77.45595542</v>
+      </c>
+      <c r="I60" s="24">
+        <f>QUARTILE(D:D,2)</f>
+        <v>48.98451166</v>
+      </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>69.0</v>
       </c>
       <c r="B61" s="16">
@@ -1362,9 +1463,24 @@
         <f t="shared" si="2"/>
         <v>60.88843537</v>
       </c>
+      <c r="F61" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="16">
+        <f t="shared" ref="G61:H61" si="6">QUARTILE(A:A,3)</f>
+        <v>91.5</v>
+      </c>
+      <c r="H61" s="20">
+        <f t="shared" si="6"/>
+        <v>117.2390695</v>
+      </c>
+      <c r="I61" s="24">
+        <f>QUARTILE(D:D,3)</f>
+        <v>55.44554145</v>
+      </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>76.0</v>
       </c>
       <c r="B62" s="16">
@@ -1378,9 +1494,24 @@
         <f t="shared" si="2"/>
         <v>59.70970747</v>
       </c>
+      <c r="F62" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <f t="shared" ref="G62:H62" si="7">MAX(A:A)</f>
+        <v>120</v>
+      </c>
+      <c r="H62" s="20">
+        <f t="shared" si="7"/>
+        <v>336.1500183</v>
+      </c>
+      <c r="I62" s="24">
+        <f>MAX(D:D)</f>
+        <v>75.95847018</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>50.0</v>
       </c>
       <c r="B63" s="16">
@@ -1394,9 +1525,24 @@
         <f t="shared" si="2"/>
         <v>59.03890378</v>
       </c>
+      <c r="F63" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63:H63" si="8">AVERAGE(A:A)</f>
+        <v>63.48</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="8"/>
+        <v>86.2258983</v>
+      </c>
+      <c r="I63" s="23">
+        <f>AVERAGE(D:D)</f>
+        <v>47.82735856</v>
+      </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>63.0</v>
       </c>
       <c r="B64" s="16">
@@ -1410,9 +1556,24 @@
         <f t="shared" si="2"/>
         <v>51.36311905</v>
       </c>
+      <c r="F64" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="25">
+        <f t="shared" ref="G64:H64" si="9">STDEV(A:A)</f>
+        <v>31.64108457</v>
+      </c>
+      <c r="H64" s="25">
+        <f t="shared" si="9"/>
+        <v>53.11803403</v>
+      </c>
+      <c r="I64" s="26">
+        <f>STDEV(D:D)</f>
+        <v>11.62270189</v>
+      </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>100.0</v>
       </c>
       <c r="B65" s="16">
@@ -1428,7 +1589,7 @@
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>93.0</v>
       </c>
       <c r="B66" s="16">
@@ -1444,7 +1605,7 @@
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>83.0</v>
       </c>
       <c r="B67" s="16">
@@ -1460,7 +1621,7 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>90.0</v>
       </c>
       <c r="B68" s="16">
@@ -1476,7 +1637,7 @@
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>89.0</v>
       </c>
       <c r="B69" s="16">
@@ -1492,7 +1653,7 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>117.0</v>
       </c>
       <c r="B70" s="16">
@@ -1508,7 +1669,7 @@
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>66.0</v>
       </c>
       <c r="B71" s="16">
@@ -1524,7 +1685,7 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>24.0</v>
       </c>
       <c r="B72" s="16">
@@ -1540,7 +1701,7 @@
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>10.0</v>
       </c>
       <c r="B73" s="16">
@@ -1556,7 +1717,7 @@
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>33.0</v>
       </c>
       <c r="B74" s="16">
@@ -1572,7 +1733,7 @@
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>26.0</v>
       </c>
       <c r="B75" s="16">
@@ -1588,7 +1749,7 @@
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>115.0</v>
       </c>
       <c r="B76" s="16">
@@ -1604,7 +1765,7 @@
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>32.0</v>
       </c>
       <c r="B77" s="16">
@@ -1620,7 +1781,7 @@
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>99.0</v>
       </c>
       <c r="B78" s="16">
@@ -1636,7 +1797,7 @@
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>51.0</v>
       </c>
       <c r="B79" s="16">
@@ -1652,7 +1813,7 @@
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>116.0</v>
       </c>
       <c r="B80" s="16">
@@ -1668,7 +1829,7 @@
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>105.0</v>
       </c>
       <c r="B81" s="16">
@@ -1684,7 +1845,7 @@
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>94.0</v>
       </c>
       <c r="B82" s="16">
@@ -1700,7 +1861,7 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>114.0</v>
       </c>
       <c r="B83" s="16">
@@ -1716,7 +1877,7 @@
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>65.0</v>
       </c>
       <c r="B84" s="16">
@@ -1732,7 +1893,7 @@
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>81.0</v>
       </c>
       <c r="B85" s="16">
@@ -1748,7 +1909,7 @@
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>113.0</v>
       </c>
       <c r="B86" s="16">
@@ -1764,7 +1925,7 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>119.0</v>
       </c>
       <c r="B87" s="16">
@@ -1780,7 +1941,7 @@
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>100.0</v>
       </c>
       <c r="B88" s="16">
@@ -1796,7 +1957,7 @@
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>24.0</v>
       </c>
       <c r="B89" s="16">
@@ -1812,7 +1973,7 @@
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>76.0</v>
       </c>
       <c r="B90" s="16">
@@ -1828,7 +1989,7 @@
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>66.0</v>
       </c>
       <c r="B91" s="16">
@@ -1844,7 +2005,7 @@
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>81.0</v>
       </c>
       <c r="B92" s="16">
@@ -1860,7 +2021,7 @@
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>29.0</v>
       </c>
       <c r="B93" s="16">
@@ -1876,7 +2037,7 @@
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>76.0</v>
       </c>
       <c r="B94" s="16">
@@ -1892,7 +2053,7 @@
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>40.0</v>
       </c>
       <c r="B95" s="16">
@@ -1908,7 +2069,7 @@
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>84.0</v>
       </c>
       <c r="B96" s="16">
@@ -1924,7 +2085,7 @@
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>48.0</v>
       </c>
       <c r="B97" s="16">
@@ -1940,7 +2101,7 @@
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>54.0</v>
       </c>
       <c r="B98" s="16">
@@ -1956,7 +2117,7 @@
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>45.0</v>
       </c>
       <c r="B99" s="16">
@@ -1972,7 +2133,7 @@
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>48.0</v>
       </c>
       <c r="B100" s="16">
@@ -1988,7 +2149,7 @@
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>119.0</v>
       </c>
       <c r="B101" s="16">
@@ -2004,7 +2165,7 @@
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>11.0</v>
       </c>
       <c r="B102" s="16">
@@ -2020,7 +2181,7 @@
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>55.0</v>
       </c>
       <c r="B103" s="16">
@@ -2036,7 +2197,7 @@
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>112.0</v>
       </c>
       <c r="B104" s="16">
@@ -2052,7 +2213,7 @@
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>75.0</v>
       </c>
       <c r="B105" s="16">
@@ -2068,7 +2229,7 @@
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>85.0</v>
       </c>
       <c r="B106" s="16">
@@ -2084,7 +2245,7 @@
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>36.0</v>
       </c>
       <c r="B107" s="16">
@@ -2100,7 +2261,7 @@
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>64.0</v>
       </c>
       <c r="B108" s="16">
@@ -2116,7 +2277,7 @@
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>56.0</v>
       </c>
       <c r="B109" s="16">
@@ -2132,7 +2293,7 @@
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3">
+      <c r="A110" s="2">
         <v>60.0</v>
       </c>
       <c r="B110" s="16">
@@ -2148,7 +2309,7 @@
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3">
+      <c r="A111" s="2">
         <v>84.0</v>
       </c>
       <c r="B111" s="16">
@@ -2164,7 +2325,7 @@
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3">
+      <c r="A112" s="2">
         <v>97.0</v>
       </c>
       <c r="B112" s="16">
@@ -2180,7 +2341,7 @@
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="3">
+      <c r="A113" s="2">
         <v>104.0</v>
       </c>
       <c r="B113" s="16">
@@ -2196,7 +2357,7 @@
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3">
+      <c r="A114" s="2">
         <v>94.0</v>
       </c>
       <c r="B114" s="16">
@@ -2212,7 +2373,7 @@
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="3">
+      <c r="A115" s="2">
         <v>88.0</v>
       </c>
       <c r="B115" s="16">
@@ -2228,7 +2389,7 @@
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3">
+      <c r="A116" s="2">
         <v>51.0</v>
       </c>
       <c r="B116" s="16">
@@ -2244,7 +2405,7 @@
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="3">
+      <c r="A117" s="2">
         <v>59.0</v>
       </c>
       <c r="B117" s="16">
@@ -2260,7 +2421,7 @@
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="3">
+      <c r="A118" s="2">
         <v>24.0</v>
       </c>
       <c r="B118" s="16">
@@ -2276,7 +2437,7 @@
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="3">
+      <c r="A119" s="2">
         <v>30.0</v>
       </c>
       <c r="B119" s="16">
@@ -2292,7 +2453,7 @@
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3">
+      <c r="A120" s="2">
         <v>73.0</v>
       </c>
       <c r="B120" s="16">
@@ -2308,7 +2469,7 @@
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3">
+      <c r="A121" s="2">
         <v>65.0</v>
       </c>
       <c r="B121" s="16">
@@ -2324,7 +2485,7 @@
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3">
+      <c r="A122" s="2">
         <v>100.0</v>
       </c>
       <c r="B122" s="16">
@@ -2340,7 +2501,7 @@
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="3">
+      <c r="A123" s="2">
         <v>78.0</v>
       </c>
       <c r="B123" s="16">
@@ -2356,7 +2517,7 @@
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="3">
+      <c r="A124" s="2">
         <v>20.0</v>
       </c>
       <c r="B124" s="16">
@@ -2372,7 +2533,7 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3">
+      <c r="A125" s="2">
         <v>109.0</v>
       </c>
       <c r="B125" s="16">
@@ -2388,7 +2549,7 @@
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3">
+      <c r="A126" s="2">
         <v>14.0</v>
       </c>
       <c r="B126" s="16">
@@ -2404,7 +2565,7 @@
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3">
+      <c r="A127" s="2">
         <v>18.0</v>
       </c>
       <c r="B127" s="16">
@@ -2420,7 +2581,7 @@
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3">
+      <c r="A128" s="2">
         <v>15.0</v>
       </c>
       <c r="B128" s="16">
@@ -2436,7 +2597,7 @@
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3">
+      <c r="A129" s="2">
         <v>109.0</v>
       </c>
       <c r="B129" s="16">
@@ -2452,7 +2613,7 @@
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3">
+      <c r="A130" s="2">
         <v>25.0</v>
       </c>
       <c r="B130" s="16">
@@ -2468,7 +2629,7 @@
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3">
+      <c r="A131" s="2">
         <v>33.0</v>
       </c>
       <c r="B131" s="16">
@@ -2484,7 +2645,7 @@
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3">
+      <c r="A132" s="2">
         <v>52.0</v>
       </c>
       <c r="B132" s="16">
@@ -2500,7 +2661,7 @@
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3">
+      <c r="A133" s="2">
         <v>120.0</v>
       </c>
       <c r="B133" s="16">
@@ -2516,7 +2677,7 @@
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="3">
+      <c r="A134" s="2">
         <v>50.0</v>
       </c>
       <c r="B134" s="16">
@@ -2532,7 +2693,7 @@
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="3">
+      <c r="A135" s="2">
         <v>104.0</v>
       </c>
       <c r="B135" s="16">
@@ -2548,7 +2709,7 @@
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="3">
+      <c r="A136" s="2">
         <v>20.0</v>
       </c>
       <c r="B136" s="16">
@@ -2564,7 +2725,7 @@
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="3">
+      <c r="A137" s="2">
         <v>34.0</v>
       </c>
       <c r="B137" s="16">
@@ -2580,7 +2741,7 @@
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="3">
+      <c r="A138" s="2">
         <v>85.0</v>
       </c>
       <c r="B138" s="16">
@@ -2596,7 +2757,7 @@
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="3">
+      <c r="A139" s="2">
         <v>41.0</v>
       </c>
       <c r="B139" s="16">
@@ -2612,7 +2773,7 @@
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="3">
+      <c r="A140" s="2">
         <v>19.0</v>
       </c>
       <c r="B140" s="16">
@@ -2628,7 +2789,7 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3">
+      <c r="A141" s="2">
         <v>99.0</v>
       </c>
       <c r="B141" s="16">
@@ -2644,7 +2805,7 @@
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3">
+      <c r="A142" s="2">
         <v>35.0</v>
       </c>
       <c r="B142" s="16">
@@ -2660,7 +2821,7 @@
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="3">
+      <c r="A143" s="2">
         <v>27.0</v>
       </c>
       <c r="B143" s="16">
@@ -2676,7 +2837,7 @@
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="3">
+      <c r="A144" s="2">
         <v>62.0</v>
       </c>
       <c r="B144" s="16">
@@ -2692,7 +2853,7 @@
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="3">
+      <c r="A145" s="2">
         <v>110.0</v>
       </c>
       <c r="B145" s="16">
@@ -2708,7 +2869,7 @@
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="3">
+      <c r="A146" s="2">
         <v>42.0</v>
       </c>
       <c r="B146" s="16">
@@ -2724,7 +2885,7 @@
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="3">
+      <c r="A147" s="2">
         <v>69.0</v>
       </c>
       <c r="B147" s="16">
@@ -2740,7 +2901,7 @@
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="3">
+      <c r="A148" s="2">
         <v>51.0</v>
       </c>
       <c r="B148" s="16">
@@ -2756,7 +2917,7 @@
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="3">
+      <c r="A149" s="2">
         <v>101.0</v>
       </c>
       <c r="B149" s="16">
@@ -2772,7 +2933,7 @@
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="3">
+      <c r="A150" s="2">
         <v>113.0</v>
       </c>
       <c r="B150" s="16">
@@ -2788,7 +2949,7 @@
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="3">
+      <c r="A151" s="2">
         <v>34.0</v>
       </c>
       <c r="B151" s="16">
@@ -2804,7 +2965,7 @@
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="3">
+      <c r="A152" s="2">
         <v>49.0</v>
       </c>
       <c r="B152" s="16">
@@ -2820,7 +2981,7 @@
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="3">
+      <c r="A153" s="2">
         <v>47.0</v>
       </c>
       <c r="B153" s="16">
@@ -2836,7 +2997,7 @@
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="3">
+      <c r="A154" s="2">
         <v>56.0</v>
       </c>
       <c r="B154" s="16">
@@ -2852,7 +3013,7 @@
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="3">
+      <c r="A155" s="2">
         <v>120.0</v>
       </c>
       <c r="B155" s="16">
@@ -2868,7 +3029,7 @@
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="3">
+      <c r="A156" s="2">
         <v>30.0</v>
       </c>
       <c r="B156" s="16">
@@ -2884,7 +3045,7 @@
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="3">
+      <c r="A157" s="2">
         <v>95.0</v>
       </c>
       <c r="B157" s="16">
@@ -2900,7 +3061,7 @@
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="3">
+      <c r="A158" s="2">
         <v>93.0</v>
       </c>
       <c r="B158" s="16">
@@ -2916,7 +3077,7 @@
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="3">
+      <c r="A159" s="2">
         <v>68.0</v>
       </c>
       <c r="B159" s="16">
@@ -2932,7 +3093,7 @@
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="3">
+      <c r="A160" s="2">
         <v>114.0</v>
       </c>
       <c r="B160" s="16">
@@ -2948,7 +3109,7 @@
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="3">
+      <c r="A161" s="2">
         <v>92.0</v>
       </c>
       <c r="B161" s="16">
@@ -2964,7 +3125,7 @@
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="3">
+      <c r="A162" s="2">
         <v>17.0</v>
       </c>
       <c r="B162" s="16">
@@ -2980,7 +3141,7 @@
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="3">
+      <c r="A163" s="2">
         <v>80.0</v>
       </c>
       <c r="B163" s="16">
@@ -2996,7 +3157,7 @@
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="3">
+      <c r="A164" s="2">
         <v>92.0</v>
       </c>
       <c r="B164" s="16">
@@ -3012,7 +3173,7 @@
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="3">
+      <c r="A165" s="2">
         <v>43.0</v>
       </c>
       <c r="B165" s="16">
@@ -3028,7 +3189,7 @@
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="3">
+      <c r="A166" s="2">
         <v>26.0</v>
       </c>
       <c r="B166" s="16">
@@ -3044,7 +3205,7 @@
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="3">
+      <c r="A167" s="2">
         <v>73.0</v>
       </c>
       <c r="B167" s="16">
@@ -3060,7 +3221,7 @@
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="3">
+      <c r="A168" s="2">
         <v>45.0</v>
       </c>
       <c r="B168" s="16">
@@ -3076,7 +3237,7 @@
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="3">
+      <c r="A169" s="2">
         <v>45.0</v>
       </c>
       <c r="B169" s="16">
@@ -3092,7 +3253,7 @@
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="3">
+      <c r="A170" s="2">
         <v>43.0</v>
       </c>
       <c r="B170" s="16">
@@ -3108,7 +3269,7 @@
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="3">
+      <c r="A171" s="2">
         <v>102.0</v>
       </c>
       <c r="B171" s="16">
@@ -3124,7 +3285,7 @@
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="3">
+      <c r="A172" s="2">
         <v>11.0</v>
       </c>
       <c r="B172" s="16">
@@ -3140,7 +3301,7 @@
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="3">
+      <c r="A173" s="2">
         <v>40.0</v>
       </c>
       <c r="B173" s="16">
@@ -3156,7 +3317,7 @@
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="3">
+      <c r="A174" s="2">
         <v>117.0</v>
       </c>
       <c r="B174" s="16">
@@ -3172,7 +3333,7 @@
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="3">
+      <c r="A175" s="2">
         <v>102.0</v>
       </c>
       <c r="B175" s="16">
@@ -3188,7 +3349,7 @@
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="3">
+      <c r="A176" s="2">
         <v>47.0</v>
       </c>
       <c r="B176" s="16">
@@ -3204,7 +3365,7 @@
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="3">
+      <c r="A177" s="2">
         <v>27.0</v>
       </c>
       <c r="B177" s="16">
@@ -3220,7 +3381,7 @@
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="3">
+      <c r="A178" s="2">
         <v>88.0</v>
       </c>
       <c r="B178" s="16">
@@ -3236,7 +3397,7 @@
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="3">
+      <c r="A179" s="2">
         <v>26.0</v>
       </c>
       <c r="B179" s="16">
@@ -3252,7 +3413,7 @@
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="3">
+      <c r="A180" s="2">
         <v>58.0</v>
       </c>
       <c r="B180" s="16">
@@ -3268,7 +3429,7 @@
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="3">
+      <c r="A181" s="2">
         <v>76.0</v>
       </c>
       <c r="B181" s="16">
@@ -3284,7 +3445,7 @@
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="3">
+      <c r="A182" s="2">
         <v>90.0</v>
       </c>
       <c r="B182" s="16">
@@ -3300,7 +3461,7 @@
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="3">
+      <c r="A183" s="2">
         <v>29.0</v>
       </c>
       <c r="B183" s="16">
@@ -3316,7 +3477,7 @@
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="3">
+      <c r="A184" s="2">
         <v>42.0</v>
       </c>
       <c r="B184" s="16">
@@ -3330,10 +3491,10 @@
         <f t="shared" si="2"/>
         <v>39.59883092</v>
       </c>
-      <c r="E184" s="9"/>
+      <c r="E184" s="12"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="3">
+      <c r="A185" s="2">
         <v>54.0</v>
       </c>
       <c r="B185" s="16">
@@ -3347,10 +3508,10 @@
         <f t="shared" si="2"/>
         <v>53.00475503</v>
       </c>
-      <c r="E185" s="9"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="3">
+      <c r="A186" s="2">
         <v>50.0</v>
       </c>
       <c r="B186" s="16">
@@ -3364,10 +3525,10 @@
         <f t="shared" si="2"/>
         <v>29.79513654</v>
       </c>
-      <c r="E186" s="9"/>
+      <c r="E186" s="12"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="3">
+      <c r="A187" s="2">
         <v>70.0</v>
       </c>
       <c r="B187" s="16">
@@ -3381,10 +3542,10 @@
         <f t="shared" si="2"/>
         <v>40.8450304</v>
       </c>
-      <c r="E187" s="9"/>
+      <c r="E187" s="12"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="3">
+      <c r="A188" s="2">
         <v>46.0</v>
       </c>
       <c r="B188" s="16">
@@ -3398,10 +3559,10 @@
         <f t="shared" si="2"/>
         <v>39.62683381</v>
       </c>
-      <c r="E188" s="9"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="3">
+      <c r="A189" s="2">
         <v>17.0</v>
       </c>
       <c r="B189" s="16">
@@ -3415,10 +3576,10 @@
         <f t="shared" si="2"/>
         <v>30.87886679</v>
       </c>
-      <c r="E189" s="9"/>
+      <c r="E189" s="12"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="3">
+      <c r="A190" s="2">
         <v>49.0</v>
       </c>
       <c r="B190" s="16">
@@ -3432,10 +3593,10 @@
         <f t="shared" si="2"/>
         <v>40.69544023</v>
       </c>
-      <c r="E190" s="9"/>
+      <c r="E190" s="12"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="3">
+      <c r="A191" s="2">
         <v>56.0</v>
       </c>
       <c r="B191" s="16">
@@ -3449,10 +3610,10 @@
         <f t="shared" si="2"/>
         <v>67.08213876</v>
       </c>
-      <c r="E191" s="9"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="3">
+      <c r="A192" s="2">
         <v>69.0</v>
       </c>
       <c r="B192" s="16">
@@ -3466,10 +3627,10 @@
         <f t="shared" si="2"/>
         <v>43.3877842</v>
       </c>
-      <c r="E192" s="9"/>
+      <c r="E192" s="12"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="3">
+      <c r="A193" s="2">
         <v>93.0</v>
       </c>
       <c r="B193" s="16">
@@ -3483,10 +3644,10 @@
         <f t="shared" si="2"/>
         <v>38.57161465</v>
       </c>
-      <c r="E193" s="9"/>
+      <c r="E193" s="12"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="3">
+      <c r="A194" s="2">
         <v>64.0</v>
       </c>
       <c r="B194" s="16">
@@ -3500,10 +3661,10 @@
         <f t="shared" si="2"/>
         <v>46.87285005</v>
       </c>
-      <c r="E194" s="9"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="3">
+      <c r="A195" s="2">
         <v>33.0</v>
       </c>
       <c r="B195" s="16">
@@ -3517,10 +3678,10 @@
         <f t="shared" si="2"/>
         <v>30.05763592</v>
       </c>
-      <c r="E195" s="9"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="3">
+      <c r="A196" s="2">
         <v>98.0</v>
       </c>
       <c r="B196" s="16">
@@ -3534,10 +3695,10 @@
         <f t="shared" si="2"/>
         <v>74.29959409</v>
       </c>
-      <c r="E196" s="9"/>
+      <c r="E196" s="12"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="3">
+      <c r="A197" s="2">
         <v>59.0</v>
       </c>
       <c r="B197" s="16">
@@ -3551,10 +3712,10 @@
         <f t="shared" si="2"/>
         <v>52.90794303</v>
       </c>
-      <c r="E197" s="9"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="3">
+      <c r="A198" s="2">
         <v>112.0</v>
       </c>
       <c r="B198" s="16">
@@ -3568,10 +3729,10 @@
         <f t="shared" si="2"/>
         <v>47.34940234</v>
       </c>
-      <c r="E198" s="9"/>
+      <c r="E198" s="12"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="3">
+      <c r="A199" s="2">
         <v>94.0</v>
       </c>
       <c r="B199" s="16">
@@ -3585,10 +3746,10 @@
         <f t="shared" si="2"/>
         <v>36.09664411</v>
       </c>
-      <c r="E199" s="9"/>
+      <c r="E199" s="12"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="3">
+      <c r="A200" s="2">
         <v>52.0</v>
       </c>
       <c r="B200" s="16">
@@ -3602,10 +3763,10 @@
         <f t="shared" si="2"/>
         <v>58.21888445</v>
       </c>
-      <c r="E200" s="9"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="3">
+      <c r="A201" s="2">
         <v>39.0</v>
       </c>
       <c r="B201" s="16">
@@ -3619,10 +3780,10 @@
         <f t="shared" si="2"/>
         <v>67.22552943</v>
       </c>
-      <c r="E201" s="9"/>
+      <c r="E201" s="12"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="3">
+      <c r="A202" s="2">
         <v>80.0</v>
       </c>
       <c r="B202" s="16">
@@ -3636,10 +3797,10 @@
         <f t="shared" si="2"/>
         <v>38.1374001</v>
       </c>
-      <c r="E202" s="9"/>
+      <c r="E202" s="12"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="3">
+      <c r="A203" s="2">
         <v>53.0</v>
       </c>
       <c r="B203" s="16">
@@ -3653,10 +3814,10 @@
         <f t="shared" si="2"/>
         <v>69.75039881</v>
       </c>
-      <c r="E203" s="9"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="3">
+      <c r="A204" s="2">
         <v>14.0</v>
       </c>
       <c r="B204" s="16">
@@ -3670,10 +3831,10 @@
         <f t="shared" si="2"/>
         <v>60.108072</v>
       </c>
-      <c r="E204" s="9"/>
+      <c r="E204" s="12"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="3">
+      <c r="A205" s="2">
         <v>107.0</v>
       </c>
       <c r="B205" s="16">
@@ -3687,10 +3848,10 @@
         <f t="shared" si="2"/>
         <v>52.77878889</v>
       </c>
-      <c r="E205" s="9"/>
+      <c r="E205" s="12"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="3">
+      <c r="A206" s="2">
         <v>16.0</v>
       </c>
       <c r="B206" s="16">
@@ -3704,10 +3865,10 @@
         <f t="shared" si="2"/>
         <v>46.92580852</v>
       </c>
-      <c r="E206" s="9"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="3">
+      <c r="A207" s="2">
         <v>35.0</v>
       </c>
       <c r="B207" s="16">
@@ -3721,10 +3882,10 @@
         <f t="shared" si="2"/>
         <v>39.67784853</v>
       </c>
-      <c r="E207" s="9"/>
+      <c r="E207" s="12"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="3">
+      <c r="A208" s="2">
         <v>113.0</v>
       </c>
       <c r="B208" s="16">
@@ -3738,10 +3899,10 @@
         <f t="shared" si="2"/>
         <v>35.98042967</v>
       </c>
-      <c r="E208" s="9"/>
+      <c r="E208" s="12"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="3">
+      <c r="A209" s="2">
         <v>118.0</v>
       </c>
       <c r="B209" s="16">
@@ -3755,10 +3916,10 @@
         <f t="shared" si="2"/>
         <v>50.22757635</v>
       </c>
-      <c r="E209" s="9"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="3">
+      <c r="A210" s="2">
         <v>25.0</v>
       </c>
       <c r="B210" s="16">
@@ -3772,10 +3933,10 @@
         <f t="shared" si="2"/>
         <v>62.14366047</v>
       </c>
-      <c r="E210" s="9"/>
+      <c r="E210" s="12"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="3">
+      <c r="A211" s="2">
         <v>10.0</v>
       </c>
       <c r="B211" s="16">
@@ -3789,10 +3950,10 @@
         <f t="shared" si="2"/>
         <v>68.43025801</v>
       </c>
-      <c r="E211" s="9"/>
+      <c r="E211" s="12"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="3">
+      <c r="A212" s="2">
         <v>54.0</v>
       </c>
       <c r="B212" s="16">
@@ -3806,10 +3967,10 @@
         <f t="shared" si="2"/>
         <v>51.15184957</v>
       </c>
-      <c r="E212" s="9"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="3">
+      <c r="A213" s="2">
         <v>56.0</v>
       </c>
       <c r="B213" s="16">
@@ -3823,10 +3984,10 @@
         <f t="shared" si="2"/>
         <v>34.15906416</v>
       </c>
-      <c r="E213" s="9"/>
+      <c r="E213" s="12"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="3">
+      <c r="A214" s="2">
         <v>34.0</v>
       </c>
       <c r="B214" s="16">
@@ -3840,10 +4001,10 @@
         <f t="shared" si="2"/>
         <v>55.26842044</v>
       </c>
-      <c r="E214" s="9"/>
+      <c r="E214" s="12"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="3">
+      <c r="A215" s="2">
         <v>61.0</v>
       </c>
       <c r="B215" s="16">
@@ -3857,10 +4018,10 @@
         <f t="shared" si="2"/>
         <v>43.85480419</v>
       </c>
-      <c r="E215" s="9"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="3">
+      <c r="A216" s="2">
         <v>84.0</v>
       </c>
       <c r="B216" s="16">
@@ -3874,10 +4035,10 @@
         <f t="shared" si="2"/>
         <v>55.50428924</v>
       </c>
-      <c r="E216" s="9"/>
+      <c r="E216" s="12"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="3">
+      <c r="A217" s="2">
         <v>112.0</v>
       </c>
       <c r="B217" s="16">
@@ -3891,10 +4052,10 @@
         <f t="shared" si="2"/>
         <v>55.47924983</v>
       </c>
-      <c r="E217" s="9"/>
+      <c r="E217" s="12"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="3">
+      <c r="A218" s="2">
         <v>44.0</v>
       </c>
       <c r="B218" s="16">
@@ -3908,10 +4069,10 @@
         <f t="shared" si="2"/>
         <v>61.52402797</v>
       </c>
-      <c r="E218" s="9"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="3">
+      <c r="A219" s="2">
         <v>11.0</v>
       </c>
       <c r="B219" s="16">
@@ -3925,10 +4086,10 @@
         <f t="shared" si="2"/>
         <v>40.00815318</v>
       </c>
-      <c r="E219" s="9"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="3">
+      <c r="A220" s="2">
         <v>69.0</v>
       </c>
       <c r="B220" s="16">
@@ -3942,10 +4103,10 @@
         <f t="shared" si="2"/>
         <v>29.2246819</v>
       </c>
-      <c r="E220" s="9"/>
+      <c r="E220" s="12"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="3">
+      <c r="A221" s="2">
         <v>120.0</v>
       </c>
       <c r="B221" s="16">
@@ -3959,10 +4120,10 @@
         <f t="shared" si="2"/>
         <v>56.20181912</v>
       </c>
-      <c r="E221" s="9"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="3">
+      <c r="A222" s="2">
         <v>23.0</v>
       </c>
       <c r="B222" s="16">
@@ -3976,10 +4137,10 @@
         <f t="shared" si="2"/>
         <v>56.495964</v>
       </c>
-      <c r="E222" s="9"/>
+      <c r="E222" s="12"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="3">
+      <c r="A223" s="2">
         <v>51.0</v>
       </c>
       <c r="B223" s="16">
@@ -3993,10 +4154,10 @@
         <f t="shared" si="2"/>
         <v>62.63661223</v>
       </c>
-      <c r="E223" s="9"/>
+      <c r="E223" s="12"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="3">
+      <c r="A224" s="2">
         <v>110.0</v>
       </c>
       <c r="B224" s="16">
@@ -4010,10 +4171,10 @@
         <f t="shared" si="2"/>
         <v>46.36085456</v>
       </c>
-      <c r="E224" s="9"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="3">
+      <c r="A225" s="2">
         <v>66.0</v>
       </c>
       <c r="B225" s="16">
@@ -4027,10 +4188,10 @@
         <f t="shared" si="2"/>
         <v>62.0095627</v>
       </c>
-      <c r="E225" s="9"/>
+      <c r="E225" s="12"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="3">
+      <c r="A226" s="2">
         <v>57.0</v>
       </c>
       <c r="B226" s="16">
@@ -4044,10 +4205,10 @@
         <f t="shared" si="2"/>
         <v>63.02328937</v>
       </c>
-      <c r="E226" s="9"/>
+      <c r="E226" s="12"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3">
+      <c r="A227" s="2">
         <v>78.0</v>
       </c>
       <c r="B227" s="16">
@@ -4061,10 +4222,10 @@
         <f t="shared" si="2"/>
         <v>59.99783045</v>
       </c>
-      <c r="E227" s="9"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="3">
+      <c r="A228" s="2">
         <v>70.0</v>
       </c>
       <c r="B228" s="16">
@@ -4078,10 +4239,10 @@
         <f t="shared" si="2"/>
         <v>34.34068267</v>
       </c>
-      <c r="E228" s="9"/>
+      <c r="E228" s="12"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="3">
+      <c r="A229" s="2">
         <v>59.0</v>
       </c>
       <c r="B229" s="16">
@@ -4095,10 +4256,10 @@
         <f t="shared" si="2"/>
         <v>56.05878565</v>
       </c>
-      <c r="E229" s="9"/>
+      <c r="E229" s="12"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="3">
+      <c r="A230" s="2">
         <v>93.0</v>
       </c>
       <c r="B230" s="16">
@@ -4112,10 +4273,10 @@
         <f t="shared" si="2"/>
         <v>40.38154822</v>
       </c>
-      <c r="E230" s="9"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="3">
+      <c r="A231" s="2">
         <v>78.0</v>
       </c>
       <c r="B231" s="16">
@@ -4129,10 +4290,10 @@
         <f t="shared" si="2"/>
         <v>23.14138332</v>
       </c>
-      <c r="E231" s="9"/>
+      <c r="E231" s="12"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="3">
+      <c r="A232" s="2">
         <v>72.0</v>
       </c>
       <c r="B232" s="16">
@@ -4146,10 +4307,10 @@
         <f t="shared" si="2"/>
         <v>50.64168636</v>
       </c>
-      <c r="E232" s="9"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="3">
+      <c r="A233" s="2">
         <v>45.0</v>
       </c>
       <c r="B233" s="16">
@@ -4163,10 +4324,10 @@
         <f t="shared" si="2"/>
         <v>49.64370788</v>
       </c>
-      <c r="E233" s="9"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="3">
+      <c r="A234" s="2">
         <v>68.0</v>
       </c>
       <c r="B234" s="16">
@@ -4180,10 +4341,10 @@
         <f t="shared" si="2"/>
         <v>33.01184339</v>
       </c>
-      <c r="E234" s="9"/>
+      <c r="E234" s="12"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="3">
+      <c r="A235" s="2">
         <v>113.0</v>
       </c>
       <c r="B235" s="16">
@@ -4197,10 +4358,10 @@
         <f t="shared" si="2"/>
         <v>49.82335929</v>
       </c>
-      <c r="E235" s="9"/>
+      <c r="E235" s="12"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="3">
+      <c r="A236" s="2">
         <v>114.0</v>
       </c>
       <c r="B236" s="16">
@@ -4214,10 +4375,10 @@
         <f t="shared" si="2"/>
         <v>50.45133377</v>
       </c>
-      <c r="E236" s="9"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="3">
+      <c r="A237" s="2">
         <v>33.0</v>
       </c>
       <c r="B237" s="16">
@@ -4231,10 +4392,10 @@
         <f t="shared" si="2"/>
         <v>26.16277312</v>
       </c>
-      <c r="E237" s="9"/>
+      <c r="E237" s="12"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="3">
+      <c r="A238" s="2">
         <v>110.0</v>
       </c>
       <c r="B238" s="16">
@@ -4248,10 +4409,10 @@
         <f t="shared" si="2"/>
         <v>55.18529222</v>
       </c>
-      <c r="E238" s="9"/>
+      <c r="E238" s="12"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="3">
+      <c r="A239" s="2">
         <v>101.0</v>
       </c>
       <c r="B239" s="16">
@@ -4265,10 +4426,10 @@
         <f t="shared" si="2"/>
         <v>42.24925823</v>
       </c>
-      <c r="E239" s="9"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="3">
+      <c r="A240" s="2">
         <v>88.0</v>
       </c>
       <c r="B240" s="16">
@@ -4282,10 +4443,10 @@
         <f t="shared" si="2"/>
         <v>54.23591197</v>
       </c>
-      <c r="E240" s="9"/>
+      <c r="E240" s="12"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="3">
+      <c r="A241" s="2">
         <v>92.0</v>
       </c>
       <c r="B241" s="16">
@@ -4299,10 +4460,10 @@
         <f t="shared" si="2"/>
         <v>38.15626713</v>
       </c>
-      <c r="E241" s="9"/>
+      <c r="E241" s="12"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="3">
+      <c r="A242" s="2">
         <v>83.0</v>
       </c>
       <c r="B242" s="16">
@@ -4316,10 +4477,10 @@
         <f t="shared" si="2"/>
         <v>37.08929119</v>
       </c>
-      <c r="E242" s="9"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="3">
+      <c r="A243" s="2">
         <v>87.0</v>
       </c>
       <c r="B243" s="16">
@@ -4333,10 +4494,10 @@
         <f t="shared" si="2"/>
         <v>54.62307702</v>
       </c>
-      <c r="E243" s="9"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="3">
+      <c r="A244" s="2">
         <v>99.0</v>
       </c>
       <c r="B244" s="16">
@@ -4350,10 +4511,10 @@
         <f t="shared" si="2"/>
         <v>35.45853984</v>
       </c>
-      <c r="E244" s="9"/>
+      <c r="E244" s="12"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="3">
+      <c r="A245" s="2">
         <v>105.0</v>
       </c>
       <c r="B245" s="16">
@@ -4367,10 +4528,10 @@
         <f t="shared" si="2"/>
         <v>48.71527833</v>
       </c>
-      <c r="E245" s="9"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="3">
+      <c r="A246" s="2">
         <v>35.0</v>
       </c>
       <c r="B246" s="16">
@@ -4384,10 +4545,10 @@
         <f t="shared" si="2"/>
         <v>46.98090213</v>
       </c>
-      <c r="E246" s="9"/>
+      <c r="E246" s="12"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="3">
+      <c r="A247" s="2">
         <v>15.0</v>
       </c>
       <c r="B247" s="16">
@@ -4401,10 +4562,10 @@
         <f t="shared" si="2"/>
         <v>54.29278362</v>
       </c>
-      <c r="E247" s="9"/>
+      <c r="E247" s="12"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="3">
+      <c r="A248" s="2">
         <v>109.0</v>
       </c>
       <c r="B248" s="16">
@@ -4418,10 +4579,10 @@
         <f t="shared" si="2"/>
         <v>64.2317784</v>
       </c>
-      <c r="E248" s="9"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="3">
+      <c r="A249" s="2">
         <v>33.0</v>
       </c>
       <c r="B249" s="16">
@@ -4435,10 +4596,10 @@
         <f t="shared" si="2"/>
         <v>67.14212175</v>
       </c>
-      <c r="E249" s="9"/>
+      <c r="E249" s="12"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="3">
+      <c r="A250" s="2">
         <v>17.0</v>
       </c>
       <c r="B250" s="16">
@@ -4452,10 +4613,10 @@
         <f t="shared" si="2"/>
         <v>34.7588238</v>
       </c>
-      <c r="E250" s="9"/>
+      <c r="E250" s="12"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="3">
+      <c r="A251" s="2">
         <v>14.0</v>
       </c>
       <c r="B251" s="16">
@@ -4469,1206 +4630,1206 @@
         <f t="shared" si="2"/>
         <v>45.53334522</v>
       </c>
-      <c r="E251" s="9"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="27"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="33"/>
+      <c r="B252" s="2"/>
       <c r="C252" s="19"/>
       <c r="D252" s="20"/>
-      <c r="E252" s="9"/>
+      <c r="E252" s="12"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="27"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="33"/>
+      <c r="B253" s="2"/>
       <c r="C253" s="19"/>
       <c r="D253" s="20"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="27"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="33"/>
+      <c r="B254" s="2"/>
       <c r="C254" s="19"/>
       <c r="D254" s="20"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="27"/>
-      <c r="B255" s="3"/>
+      <c r="A255" s="33"/>
+      <c r="B255" s="2"/>
       <c r="C255" s="19"/>
       <c r="D255" s="20"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="27"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="33"/>
+      <c r="B256" s="2"/>
       <c r="C256" s="19"/>
       <c r="D256" s="20"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="27"/>
-      <c r="B257" s="3"/>
+      <c r="A257" s="33"/>
+      <c r="B257" s="2"/>
       <c r="C257" s="19"/>
       <c r="D257" s="20"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="27"/>
-      <c r="B258" s="3"/>
+      <c r="A258" s="33"/>
+      <c r="B258" s="2"/>
       <c r="C258" s="19"/>
       <c r="D258" s="20"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="27"/>
-      <c r="B259" s="3"/>
+      <c r="A259" s="33"/>
+      <c r="B259" s="2"/>
       <c r="C259" s="19"/>
       <c r="D259" s="20"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="27"/>
-      <c r="B260" s="3"/>
+      <c r="A260" s="33"/>
+      <c r="B260" s="2"/>
       <c r="C260" s="19"/>
       <c r="D260" s="20"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="27"/>
-      <c r="B261" s="3"/>
+      <c r="A261" s="33"/>
+      <c r="B261" s="2"/>
       <c r="C261" s="19"/>
       <c r="D261" s="20"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="27"/>
-      <c r="B262" s="3"/>
+      <c r="A262" s="33"/>
+      <c r="B262" s="2"/>
       <c r="C262" s="19"/>
       <c r="D262" s="20"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="27"/>
-      <c r="B263" s="3"/>
+      <c r="A263" s="33"/>
+      <c r="B263" s="2"/>
       <c r="C263" s="19"/>
       <c r="D263" s="20"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="27"/>
-      <c r="B264" s="3"/>
+      <c r="A264" s="33"/>
+      <c r="B264" s="2"/>
       <c r="C264" s="19"/>
       <c r="D264" s="20"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="27"/>
-      <c r="B265" s="3"/>
+      <c r="A265" s="33"/>
+      <c r="B265" s="2"/>
       <c r="C265" s="19"/>
       <c r="D265" s="20"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="27"/>
-      <c r="B266" s="3"/>
+      <c r="A266" s="33"/>
+      <c r="B266" s="2"/>
       <c r="C266" s="19"/>
       <c r="D266" s="20"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="27"/>
-      <c r="B267" s="3"/>
+      <c r="A267" s="33"/>
+      <c r="B267" s="2"/>
       <c r="C267" s="19"/>
       <c r="D267" s="20"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="27"/>
-      <c r="B268" s="3"/>
+      <c r="A268" s="33"/>
+      <c r="B268" s="2"/>
       <c r="C268" s="19"/>
       <c r="D268" s="20"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="27"/>
-      <c r="B269" s="3"/>
+      <c r="A269" s="33"/>
+      <c r="B269" s="2"/>
       <c r="C269" s="19"/>
       <c r="D269" s="20"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="27"/>
-      <c r="B270" s="3"/>
+      <c r="A270" s="33"/>
+      <c r="B270" s="2"/>
       <c r="C270" s="19"/>
       <c r="D270" s="20"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="27"/>
-      <c r="B271" s="3"/>
+      <c r="A271" s="33"/>
+      <c r="B271" s="2"/>
       <c r="C271" s="19"/>
       <c r="D271" s="20"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="27"/>
-      <c r="B272" s="3"/>
+      <c r="A272" s="33"/>
+      <c r="B272" s="2"/>
       <c r="C272" s="19"/>
       <c r="D272" s="20"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="27"/>
-      <c r="B273" s="3"/>
+      <c r="A273" s="33"/>
+      <c r="B273" s="2"/>
       <c r="C273" s="19"/>
       <c r="D273" s="20"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="27"/>
-      <c r="B274" s="3"/>
+      <c r="A274" s="33"/>
+      <c r="B274" s="2"/>
       <c r="C274" s="19"/>
       <c r="D274" s="20"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="27"/>
-      <c r="B275" s="3"/>
+      <c r="A275" s="33"/>
+      <c r="B275" s="2"/>
       <c r="C275" s="19"/>
       <c r="D275" s="20"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="27"/>
-      <c r="B276" s="3"/>
+      <c r="A276" s="33"/>
+      <c r="B276" s="2"/>
       <c r="C276" s="19"/>
       <c r="D276" s="20"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="27"/>
-      <c r="B277" s="3"/>
+      <c r="A277" s="33"/>
+      <c r="B277" s="2"/>
       <c r="C277" s="19"/>
       <c r="D277" s="20"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="27"/>
-      <c r="B278" s="3"/>
+      <c r="A278" s="33"/>
+      <c r="B278" s="2"/>
       <c r="C278" s="19"/>
       <c r="D278" s="20"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="27"/>
-      <c r="B279" s="3"/>
+      <c r="A279" s="33"/>
+      <c r="B279" s="2"/>
       <c r="C279" s="19"/>
       <c r="D279" s="20"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="27"/>
-      <c r="B280" s="3"/>
+      <c r="A280" s="33"/>
+      <c r="B280" s="2"/>
       <c r="C280" s="19"/>
       <c r="D280" s="20"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="27"/>
-      <c r="B281" s="3"/>
+      <c r="A281" s="33"/>
+      <c r="B281" s="2"/>
       <c r="C281" s="19"/>
       <c r="D281" s="20"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="27"/>
-      <c r="B282" s="3"/>
+      <c r="A282" s="33"/>
+      <c r="B282" s="2"/>
       <c r="C282" s="19"/>
       <c r="D282" s="20"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="27"/>
-      <c r="B283" s="3"/>
+      <c r="A283" s="33"/>
+      <c r="B283" s="2"/>
       <c r="C283" s="19"/>
       <c r="D283" s="20"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="27"/>
-      <c r="B284" s="3"/>
+      <c r="A284" s="33"/>
+      <c r="B284" s="2"/>
       <c r="C284" s="19"/>
       <c r="D284" s="20"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="27"/>
-      <c r="B285" s="3"/>
+      <c r="A285" s="33"/>
+      <c r="B285" s="2"/>
       <c r="C285" s="19"/>
       <c r="D285" s="20"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="27"/>
-      <c r="B286" s="3"/>
+      <c r="A286" s="33"/>
+      <c r="B286" s="2"/>
       <c r="C286" s="19"/>
       <c r="D286" s="20"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="27"/>
-      <c r="B287" s="3"/>
+      <c r="A287" s="33"/>
+      <c r="B287" s="2"/>
       <c r="C287" s="19"/>
       <c r="D287" s="20"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="27"/>
-      <c r="B288" s="3"/>
+      <c r="A288" s="33"/>
+      <c r="B288" s="2"/>
       <c r="C288" s="19"/>
       <c r="D288" s="20"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="27"/>
-      <c r="B289" s="3"/>
+      <c r="A289" s="33"/>
+      <c r="B289" s="2"/>
       <c r="C289" s="19"/>
       <c r="D289" s="20"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="27"/>
-      <c r="B290" s="3"/>
+      <c r="A290" s="33"/>
+      <c r="B290" s="2"/>
       <c r="C290" s="19"/>
       <c r="D290" s="20"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="27"/>
-      <c r="B291" s="3"/>
+      <c r="A291" s="33"/>
+      <c r="B291" s="2"/>
       <c r="C291" s="19"/>
       <c r="D291" s="20"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="27"/>
-      <c r="B292" s="3"/>
+      <c r="A292" s="33"/>
+      <c r="B292" s="2"/>
       <c r="C292" s="19"/>
       <c r="D292" s="20"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="27"/>
-      <c r="B293" s="3"/>
+      <c r="A293" s="33"/>
+      <c r="B293" s="2"/>
       <c r="C293" s="19"/>
       <c r="D293" s="20"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="27"/>
-      <c r="B294" s="3"/>
+      <c r="A294" s="33"/>
+      <c r="B294" s="2"/>
       <c r="C294" s="19"/>
       <c r="D294" s="20"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="27"/>
-      <c r="B295" s="3"/>
+      <c r="A295" s="33"/>
+      <c r="B295" s="2"/>
       <c r="C295" s="19"/>
       <c r="D295" s="20"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="27"/>
-      <c r="B296" s="3"/>
+      <c r="A296" s="33"/>
+      <c r="B296" s="2"/>
       <c r="C296" s="19"/>
       <c r="D296" s="20"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="27"/>
-      <c r="B297" s="3"/>
+      <c r="A297" s="33"/>
+      <c r="B297" s="2"/>
       <c r="C297" s="19"/>
       <c r="D297" s="20"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="27"/>
-      <c r="B298" s="3"/>
+      <c r="A298" s="33"/>
+      <c r="B298" s="2"/>
       <c r="C298" s="19"/>
       <c r="D298" s="20"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="27"/>
-      <c r="B299" s="3"/>
+      <c r="A299" s="33"/>
+      <c r="B299" s="2"/>
       <c r="C299" s="19"/>
       <c r="D299" s="20"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="27"/>
-      <c r="B300" s="3"/>
+      <c r="A300" s="33"/>
+      <c r="B300" s="2"/>
       <c r="C300" s="19"/>
       <c r="D300" s="20"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="27"/>
-      <c r="B301" s="3"/>
+      <c r="A301" s="33"/>
+      <c r="B301" s="2"/>
       <c r="C301" s="19"/>
       <c r="D301" s="20"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="27"/>
-      <c r="B302" s="3"/>
+      <c r="A302" s="33"/>
+      <c r="B302" s="2"/>
       <c r="C302" s="19"/>
       <c r="D302" s="20"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="27"/>
-      <c r="B303" s="3"/>
+      <c r="A303" s="33"/>
+      <c r="B303" s="2"/>
       <c r="C303" s="19"/>
       <c r="D303" s="20"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="27"/>
-      <c r="B304" s="3"/>
+      <c r="A304" s="33"/>
+      <c r="B304" s="2"/>
       <c r="C304" s="19"/>
       <c r="D304" s="20"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="27"/>
-      <c r="B305" s="3"/>
+      <c r="A305" s="33"/>
+      <c r="B305" s="2"/>
       <c r="C305" s="19"/>
       <c r="D305" s="20"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="27"/>
-      <c r="B306" s="3"/>
+      <c r="A306" s="33"/>
+      <c r="B306" s="2"/>
       <c r="C306" s="19"/>
       <c r="D306" s="20"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="27"/>
-      <c r="B307" s="3"/>
+      <c r="A307" s="33"/>
+      <c r="B307" s="2"/>
       <c r="C307" s="19"/>
       <c r="D307" s="20"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="27"/>
-      <c r="B308" s="3"/>
+      <c r="A308" s="33"/>
+      <c r="B308" s="2"/>
       <c r="C308" s="19"/>
       <c r="D308" s="20"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="27"/>
-      <c r="B309" s="3"/>
+      <c r="A309" s="33"/>
+      <c r="B309" s="2"/>
       <c r="C309" s="19"/>
       <c r="D309" s="20"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="27"/>
-      <c r="B310" s="3"/>
+      <c r="A310" s="33"/>
+      <c r="B310" s="2"/>
       <c r="C310" s="19"/>
       <c r="D310" s="20"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="27"/>
-      <c r="B311" s="3"/>
+      <c r="A311" s="33"/>
+      <c r="B311" s="2"/>
       <c r="C311" s="19"/>
       <c r="D311" s="20"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="27"/>
-      <c r="B312" s="3"/>
+      <c r="A312" s="33"/>
+      <c r="B312" s="2"/>
       <c r="C312" s="19"/>
       <c r="D312" s="20"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="27"/>
-      <c r="B313" s="3"/>
+      <c r="A313" s="33"/>
+      <c r="B313" s="2"/>
       <c r="C313" s="19"/>
       <c r="D313" s="20"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="27"/>
-      <c r="B314" s="3"/>
+      <c r="A314" s="33"/>
+      <c r="B314" s="2"/>
       <c r="C314" s="19"/>
       <c r="D314" s="20"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="27"/>
-      <c r="B315" s="3"/>
+      <c r="A315" s="33"/>
+      <c r="B315" s="2"/>
       <c r="C315" s="19"/>
       <c r="D315" s="20"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="27"/>
-      <c r="B316" s="3"/>
+      <c r="A316" s="33"/>
+      <c r="B316" s="2"/>
       <c r="C316" s="19"/>
       <c r="D316" s="20"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="27"/>
-      <c r="B317" s="3"/>
+      <c r="A317" s="33"/>
+      <c r="B317" s="2"/>
       <c r="C317" s="19"/>
       <c r="D317" s="20"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="27"/>
-      <c r="B318" s="3"/>
+      <c r="A318" s="33"/>
+      <c r="B318" s="2"/>
       <c r="C318" s="19"/>
       <c r="D318" s="20"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="27"/>
-      <c r="B319" s="3"/>
+      <c r="A319" s="33"/>
+      <c r="B319" s="2"/>
       <c r="C319" s="19"/>
       <c r="D319" s="20"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="27"/>
-      <c r="B320" s="3"/>
+      <c r="A320" s="33"/>
+      <c r="B320" s="2"/>
       <c r="C320" s="19"/>
       <c r="D320" s="20"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="27"/>
-      <c r="B321" s="3"/>
+      <c r="A321" s="33"/>
+      <c r="B321" s="2"/>
       <c r="C321" s="19"/>
       <c r="D321" s="20"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="27"/>
-      <c r="B322" s="3"/>
+      <c r="A322" s="33"/>
+      <c r="B322" s="2"/>
       <c r="C322" s="19"/>
       <c r="D322" s="20"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="27"/>
-      <c r="B323" s="3"/>
+      <c r="A323" s="33"/>
+      <c r="B323" s="2"/>
       <c r="C323" s="19"/>
       <c r="D323" s="20"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="27"/>
-      <c r="B324" s="3"/>
+      <c r="A324" s="33"/>
+      <c r="B324" s="2"/>
       <c r="C324" s="19"/>
       <c r="D324" s="20"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="27"/>
-      <c r="B325" s="3"/>
+      <c r="A325" s="33"/>
+      <c r="B325" s="2"/>
       <c r="C325" s="19"/>
       <c r="D325" s="20"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="27"/>
-      <c r="B326" s="3"/>
+      <c r="A326" s="33"/>
+      <c r="B326" s="2"/>
       <c r="C326" s="19"/>
       <c r="D326" s="20"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="27"/>
-      <c r="B327" s="3"/>
+      <c r="A327" s="33"/>
+      <c r="B327" s="2"/>
       <c r="C327" s="19"/>
       <c r="D327" s="20"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="27"/>
-      <c r="B328" s="3"/>
+      <c r="A328" s="33"/>
+      <c r="B328" s="2"/>
       <c r="C328" s="19"/>
       <c r="D328" s="20"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="27"/>
-      <c r="B329" s="3"/>
+      <c r="A329" s="33"/>
+      <c r="B329" s="2"/>
       <c r="C329" s="19"/>
       <c r="D329" s="20"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="27"/>
-      <c r="B330" s="3"/>
+      <c r="A330" s="33"/>
+      <c r="B330" s="2"/>
       <c r="C330" s="19"/>
       <c r="D330" s="20"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="27"/>
-      <c r="B331" s="3"/>
+      <c r="A331" s="33"/>
+      <c r="B331" s="2"/>
       <c r="C331" s="19"/>
       <c r="D331" s="20"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="27"/>
-      <c r="B332" s="3"/>
+      <c r="A332" s="33"/>
+      <c r="B332" s="2"/>
       <c r="C332" s="19"/>
       <c r="D332" s="20"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="27"/>
-      <c r="B333" s="3"/>
+      <c r="A333" s="33"/>
+      <c r="B333" s="2"/>
       <c r="C333" s="19"/>
       <c r="D333" s="20"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="27"/>
-      <c r="B334" s="3"/>
+      <c r="A334" s="33"/>
+      <c r="B334" s="2"/>
       <c r="C334" s="19"/>
       <c r="D334" s="20"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="27"/>
-      <c r="B335" s="3"/>
+      <c r="A335" s="33"/>
+      <c r="B335" s="2"/>
       <c r="C335" s="19"/>
       <c r="D335" s="20"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="27"/>
-      <c r="B336" s="3"/>
+      <c r="A336" s="33"/>
+      <c r="B336" s="2"/>
       <c r="C336" s="19"/>
       <c r="D336" s="20"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="27"/>
-      <c r="B337" s="3"/>
+      <c r="A337" s="33"/>
+      <c r="B337" s="2"/>
       <c r="C337" s="19"/>
       <c r="D337" s="20"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="27"/>
-      <c r="B338" s="3"/>
+      <c r="A338" s="33"/>
+      <c r="B338" s="2"/>
       <c r="C338" s="19"/>
       <c r="D338" s="20"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="27"/>
-      <c r="B339" s="3"/>
+      <c r="A339" s="33"/>
+      <c r="B339" s="2"/>
       <c r="C339" s="19"/>
       <c r="D339" s="20"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="27"/>
-      <c r="B340" s="3"/>
+      <c r="A340" s="33"/>
+      <c r="B340" s="2"/>
       <c r="C340" s="19"/>
       <c r="D340" s="20"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="27"/>
-      <c r="B341" s="3"/>
+      <c r="A341" s="33"/>
+      <c r="B341" s="2"/>
       <c r="C341" s="19"/>
       <c r="D341" s="20"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="27"/>
-      <c r="B342" s="3"/>
+      <c r="A342" s="33"/>
+      <c r="B342" s="2"/>
       <c r="C342" s="19"/>
       <c r="D342" s="20"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="27"/>
-      <c r="B343" s="3"/>
+      <c r="A343" s="33"/>
+      <c r="B343" s="2"/>
       <c r="C343" s="19"/>
       <c r="D343" s="20"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="27"/>
-      <c r="B344" s="3"/>
+      <c r="A344" s="33"/>
+      <c r="B344" s="2"/>
       <c r="C344" s="19"/>
       <c r="D344" s="20"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="27"/>
-      <c r="B345" s="3"/>
+      <c r="A345" s="33"/>
+      <c r="B345" s="2"/>
       <c r="C345" s="19"/>
       <c r="D345" s="20"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="27"/>
-      <c r="B346" s="3"/>
+      <c r="A346" s="33"/>
+      <c r="B346" s="2"/>
       <c r="C346" s="19"/>
       <c r="D346" s="20"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="27"/>
-      <c r="B347" s="3"/>
+      <c r="A347" s="33"/>
+      <c r="B347" s="2"/>
       <c r="C347" s="19"/>
       <c r="D347" s="20"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="27"/>
-      <c r="B348" s="3"/>
+      <c r="A348" s="33"/>
+      <c r="B348" s="2"/>
       <c r="C348" s="19"/>
       <c r="D348" s="20"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="27"/>
-      <c r="B349" s="3"/>
+      <c r="A349" s="33"/>
+      <c r="B349" s="2"/>
       <c r="C349" s="19"/>
       <c r="D349" s="20"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="27"/>
-      <c r="B350" s="3"/>
+      <c r="A350" s="33"/>
+      <c r="B350" s="2"/>
       <c r="C350" s="19"/>
       <c r="D350" s="20"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="27"/>
-      <c r="B351" s="3"/>
+      <c r="A351" s="33"/>
+      <c r="B351" s="2"/>
       <c r="C351" s="19"/>
       <c r="D351" s="20"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="27"/>
-      <c r="B352" s="3"/>
+      <c r="A352" s="33"/>
+      <c r="B352" s="2"/>
       <c r="C352" s="19"/>
       <c r="D352" s="20"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="27"/>
-      <c r="B353" s="3"/>
+      <c r="A353" s="33"/>
+      <c r="B353" s="2"/>
       <c r="C353" s="19"/>
       <c r="D353" s="20"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="27"/>
-      <c r="B354" s="3"/>
+      <c r="A354" s="33"/>
+      <c r="B354" s="2"/>
       <c r="C354" s="19"/>
       <c r="D354" s="20"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="27"/>
-      <c r="B355" s="3"/>
+      <c r="A355" s="33"/>
+      <c r="B355" s="2"/>
       <c r="C355" s="19"/>
       <c r="D355" s="20"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="27"/>
-      <c r="B356" s="3"/>
+      <c r="A356" s="33"/>
+      <c r="B356" s="2"/>
       <c r="C356" s="19"/>
       <c r="D356" s="20"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="27"/>
-      <c r="B357" s="3"/>
+      <c r="A357" s="33"/>
+      <c r="B357" s="2"/>
       <c r="C357" s="19"/>
       <c r="D357" s="20"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="27"/>
-      <c r="B358" s="3"/>
+      <c r="A358" s="33"/>
+      <c r="B358" s="2"/>
       <c r="C358" s="19"/>
       <c r="D358" s="20"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="27"/>
-      <c r="B359" s="3"/>
+      <c r="A359" s="33"/>
+      <c r="B359" s="2"/>
       <c r="C359" s="19"/>
       <c r="D359" s="20"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="27"/>
-      <c r="B360" s="3"/>
+      <c r="A360" s="33"/>
+      <c r="B360" s="2"/>
       <c r="C360" s="19"/>
       <c r="D360" s="20"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="27"/>
-      <c r="B361" s="3"/>
+      <c r="A361" s="33"/>
+      <c r="B361" s="2"/>
       <c r="C361" s="19"/>
       <c r="D361" s="20"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="27"/>
-      <c r="B362" s="3"/>
+      <c r="A362" s="33"/>
+      <c r="B362" s="2"/>
       <c r="C362" s="19"/>
       <c r="D362" s="20"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="27"/>
-      <c r="B363" s="3"/>
+      <c r="A363" s="33"/>
+      <c r="B363" s="2"/>
       <c r="C363" s="19"/>
       <c r="D363" s="20"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="27"/>
-      <c r="B364" s="3"/>
+      <c r="A364" s="33"/>
+      <c r="B364" s="2"/>
       <c r="C364" s="19"/>
       <c r="D364" s="20"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="27"/>
-      <c r="B365" s="3"/>
+      <c r="A365" s="33"/>
+      <c r="B365" s="2"/>
       <c r="C365" s="19"/>
       <c r="D365" s="20"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="27"/>
-      <c r="B366" s="3"/>
+      <c r="A366" s="33"/>
+      <c r="B366" s="2"/>
       <c r="C366" s="19"/>
       <c r="D366" s="20"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="27"/>
-      <c r="B367" s="3"/>
+      <c r="A367" s="33"/>
+      <c r="B367" s="2"/>
       <c r="C367" s="19"/>
       <c r="D367" s="20"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="27"/>
-      <c r="B368" s="3"/>
+      <c r="A368" s="33"/>
+      <c r="B368" s="2"/>
       <c r="C368" s="19"/>
       <c r="D368" s="20"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="27"/>
-      <c r="B369" s="3"/>
+      <c r="A369" s="33"/>
+      <c r="B369" s="2"/>
       <c r="C369" s="19"/>
       <c r="D369" s="20"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="27"/>
-      <c r="B370" s="3"/>
+      <c r="A370" s="33"/>
+      <c r="B370" s="2"/>
       <c r="C370" s="19"/>
       <c r="D370" s="20"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="27"/>
-      <c r="B371" s="3"/>
+      <c r="A371" s="33"/>
+      <c r="B371" s="2"/>
       <c r="C371" s="19"/>
       <c r="D371" s="20"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="27"/>
-      <c r="B372" s="3"/>
+      <c r="A372" s="33"/>
+      <c r="B372" s="2"/>
       <c r="C372" s="19"/>
       <c r="D372" s="20"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="27"/>
-      <c r="B373" s="3"/>
+      <c r="A373" s="33"/>
+      <c r="B373" s="2"/>
       <c r="C373" s="19"/>
       <c r="D373" s="20"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="27"/>
-      <c r="B374" s="3"/>
+      <c r="A374" s="33"/>
+      <c r="B374" s="2"/>
       <c r="C374" s="19"/>
       <c r="D374" s="20"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="27"/>
-      <c r="B375" s="3"/>
+      <c r="A375" s="33"/>
+      <c r="B375" s="2"/>
       <c r="C375" s="19"/>
       <c r="D375" s="20"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="27"/>
-      <c r="B376" s="3"/>
+      <c r="A376" s="33"/>
+      <c r="B376" s="2"/>
       <c r="C376" s="19"/>
       <c r="D376" s="20"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="27"/>
-      <c r="B377" s="3"/>
+      <c r="A377" s="33"/>
+      <c r="B377" s="2"/>
       <c r="C377" s="19"/>
       <c r="D377" s="20"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="27"/>
-      <c r="B378" s="3"/>
+      <c r="A378" s="33"/>
+      <c r="B378" s="2"/>
       <c r="C378" s="19"/>
       <c r="D378" s="20"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="27"/>
-      <c r="B379" s="3"/>
+      <c r="A379" s="33"/>
+      <c r="B379" s="2"/>
       <c r="C379" s="19"/>
       <c r="D379" s="20"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="27"/>
-      <c r="B380" s="3"/>
+      <c r="A380" s="33"/>
+      <c r="B380" s="2"/>
       <c r="C380" s="19"/>
       <c r="D380" s="20"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="27"/>
-      <c r="B381" s="3"/>
+      <c r="A381" s="33"/>
+      <c r="B381" s="2"/>
       <c r="C381" s="19"/>
       <c r="D381" s="20"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="27"/>
-      <c r="B382" s="3"/>
+      <c r="A382" s="33"/>
+      <c r="B382" s="2"/>
       <c r="C382" s="19"/>
       <c r="D382" s="20"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="27"/>
-      <c r="B383" s="3"/>
+      <c r="A383" s="33"/>
+      <c r="B383" s="2"/>
       <c r="C383" s="19"/>
       <c r="D383" s="20"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="27"/>
-      <c r="B384" s="3"/>
+      <c r="A384" s="33"/>
+      <c r="B384" s="2"/>
       <c r="C384" s="19"/>
       <c r="D384" s="20"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="27"/>
-      <c r="B385" s="3"/>
+      <c r="A385" s="33"/>
+      <c r="B385" s="2"/>
       <c r="C385" s="19"/>
       <c r="D385" s="20"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="27"/>
-      <c r="B386" s="3"/>
+      <c r="A386" s="33"/>
+      <c r="B386" s="2"/>
       <c r="C386" s="19"/>
       <c r="D386" s="20"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="27"/>
-      <c r="B387" s="3"/>
+      <c r="A387" s="33"/>
+      <c r="B387" s="2"/>
       <c r="C387" s="19"/>
       <c r="D387" s="20"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="27"/>
-      <c r="B388" s="3"/>
+      <c r="A388" s="33"/>
+      <c r="B388" s="2"/>
       <c r="C388" s="19"/>
       <c r="D388" s="20"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="27"/>
-      <c r="B389" s="3"/>
+      <c r="A389" s="33"/>
+      <c r="B389" s="2"/>
       <c r="C389" s="19"/>
       <c r="D389" s="20"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="27"/>
-      <c r="B390" s="3"/>
+      <c r="A390" s="33"/>
+      <c r="B390" s="2"/>
       <c r="C390" s="19"/>
       <c r="D390" s="20"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="27"/>
-      <c r="B391" s="3"/>
+      <c r="A391" s="33"/>
+      <c r="B391" s="2"/>
       <c r="C391" s="19"/>
       <c r="D391" s="20"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="27"/>
-      <c r="B392" s="3"/>
+      <c r="A392" s="33"/>
+      <c r="B392" s="2"/>
       <c r="C392" s="19"/>
       <c r="D392" s="20"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="27"/>
-      <c r="B393" s="3"/>
+      <c r="A393" s="33"/>
+      <c r="B393" s="2"/>
       <c r="C393" s="19"/>
       <c r="D393" s="20"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="27"/>
-      <c r="B394" s="3"/>
+      <c r="A394" s="33"/>
+      <c r="B394" s="2"/>
       <c r="C394" s="19"/>
       <c r="D394" s="20"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="27"/>
-      <c r="B395" s="3"/>
+      <c r="A395" s="33"/>
+      <c r="B395" s="2"/>
       <c r="C395" s="19"/>
       <c r="D395" s="20"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="27"/>
-      <c r="B396" s="3"/>
+      <c r="A396" s="33"/>
+      <c r="B396" s="2"/>
       <c r="C396" s="19"/>
       <c r="D396" s="20"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="27"/>
-      <c r="B397" s="3"/>
+      <c r="A397" s="33"/>
+      <c r="B397" s="2"/>
       <c r="C397" s="19"/>
       <c r="D397" s="20"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="27"/>
-      <c r="B398" s="3"/>
+      <c r="A398" s="33"/>
+      <c r="B398" s="2"/>
       <c r="C398" s="19"/>
       <c r="D398" s="20"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="27"/>
-      <c r="B399" s="3"/>
+      <c r="A399" s="33"/>
+      <c r="B399" s="2"/>
       <c r="C399" s="19"/>
       <c r="D399" s="20"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="27"/>
-      <c r="B400" s="3"/>
+      <c r="A400" s="33"/>
+      <c r="B400" s="2"/>
       <c r="C400" s="19"/>
       <c r="D400" s="20"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="27"/>
-      <c r="B401" s="3"/>
+      <c r="A401" s="33"/>
+      <c r="B401" s="2"/>
       <c r="C401" s="19"/>
       <c r="D401" s="20"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="27"/>
-      <c r="B402" s="3"/>
+      <c r="A402" s="33"/>
+      <c r="B402" s="2"/>
       <c r="C402" s="19"/>
       <c r="D402" s="20"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="27"/>
-      <c r="B403" s="3"/>
+      <c r="A403" s="33"/>
+      <c r="B403" s="2"/>
       <c r="C403" s="19"/>
       <c r="D403" s="20"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="27"/>
-      <c r="B404" s="3"/>
+      <c r="A404" s="33"/>
+      <c r="B404" s="2"/>
       <c r="C404" s="19"/>
       <c r="D404" s="20"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="27"/>
-      <c r="B405" s="3"/>
+      <c r="A405" s="33"/>
+      <c r="B405" s="2"/>
       <c r="C405" s="19"/>
       <c r="D405" s="20"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="27"/>
-      <c r="B406" s="3"/>
+      <c r="A406" s="33"/>
+      <c r="B406" s="2"/>
       <c r="C406" s="19"/>
       <c r="D406" s="20"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="27"/>
-      <c r="B407" s="3"/>
+      <c r="A407" s="33"/>
+      <c r="B407" s="2"/>
       <c r="C407" s="19"/>
       <c r="D407" s="20"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="27"/>
-      <c r="B408" s="3"/>
+      <c r="A408" s="33"/>
+      <c r="B408" s="2"/>
       <c r="C408" s="19"/>
       <c r="D408" s="20"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="27"/>
-      <c r="B409" s="3"/>
+      <c r="A409" s="33"/>
+      <c r="B409" s="2"/>
       <c r="C409" s="19"/>
       <c r="D409" s="20"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="27"/>
-      <c r="B410" s="3"/>
+      <c r="A410" s="33"/>
+      <c r="B410" s="2"/>
       <c r="C410" s="19"/>
       <c r="D410" s="20"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="27"/>
-      <c r="B411" s="3"/>
+      <c r="A411" s="33"/>
+      <c r="B411" s="2"/>
       <c r="C411" s="19"/>
       <c r="D411" s="20"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="27"/>
-      <c r="B412" s="3"/>
+      <c r="A412" s="33"/>
+      <c r="B412" s="2"/>
       <c r="C412" s="19"/>
       <c r="D412" s="20"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="27"/>
-      <c r="B413" s="3"/>
+      <c r="A413" s="33"/>
+      <c r="B413" s="2"/>
       <c r="C413" s="19"/>
       <c r="D413" s="20"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="27"/>
-      <c r="B414" s="3"/>
+      <c r="A414" s="33"/>
+      <c r="B414" s="2"/>
       <c r="C414" s="19"/>
       <c r="D414" s="20"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="27"/>
-      <c r="B415" s="3"/>
+      <c r="A415" s="33"/>
+      <c r="B415" s="2"/>
       <c r="C415" s="19"/>
       <c r="D415" s="20"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="27"/>
-      <c r="B416" s="3"/>
+      <c r="A416" s="33"/>
+      <c r="B416" s="2"/>
       <c r="C416" s="19"/>
       <c r="D416" s="20"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="27"/>
-      <c r="B417" s="3"/>
+      <c r="A417" s="33"/>
+      <c r="B417" s="2"/>
       <c r="C417" s="19"/>
       <c r="D417" s="20"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="27"/>
-      <c r="B418" s="3"/>
+      <c r="A418" s="33"/>
+      <c r="B418" s="2"/>
       <c r="C418" s="19"/>
       <c r="D418" s="20"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="27"/>
-      <c r="B419" s="3"/>
+      <c r="A419" s="33"/>
+      <c r="B419" s="2"/>
       <c r="C419" s="19"/>
       <c r="D419" s="20"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="27"/>
-      <c r="B420" s="3"/>
+      <c r="A420" s="33"/>
+      <c r="B420" s="2"/>
       <c r="C420" s="19"/>
       <c r="D420" s="20"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="27"/>
-      <c r="B421" s="3"/>
+      <c r="A421" s="33"/>
+      <c r="B421" s="2"/>
       <c r="C421" s="19"/>
       <c r="D421" s="20"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="27"/>
-      <c r="B422" s="3"/>
+      <c r="A422" s="33"/>
+      <c r="B422" s="2"/>
       <c r="C422" s="19"/>
       <c r="D422" s="20"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="27"/>
-      <c r="B423" s="3"/>
+      <c r="A423" s="33"/>
+      <c r="B423" s="2"/>
       <c r="C423" s="19"/>
       <c r="D423" s="20"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="27"/>
-      <c r="B424" s="3"/>
+      <c r="A424" s="33"/>
+      <c r="B424" s="2"/>
       <c r="C424" s="19"/>
       <c r="D424" s="20"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="27"/>
-      <c r="B425" s="3"/>
+      <c r="A425" s="33"/>
+      <c r="B425" s="2"/>
       <c r="C425" s="19"/>
       <c r="D425" s="20"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="27"/>
-      <c r="B426" s="3"/>
+      <c r="A426" s="33"/>
+      <c r="B426" s="2"/>
       <c r="C426" s="19"/>
       <c r="D426" s="20"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="27"/>
-      <c r="B427" s="3"/>
+      <c r="A427" s="33"/>
+      <c r="B427" s="2"/>
       <c r="C427" s="19"/>
       <c r="D427" s="20"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="27"/>
-      <c r="B428" s="3"/>
+      <c r="A428" s="33"/>
+      <c r="B428" s="2"/>
       <c r="C428" s="19"/>
       <c r="D428" s="20"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="27"/>
-      <c r="B429" s="3"/>
+      <c r="A429" s="33"/>
+      <c r="B429" s="2"/>
       <c r="C429" s="19"/>
       <c r="D429" s="20"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="27"/>
-      <c r="B430" s="3"/>
+      <c r="A430" s="33"/>
+      <c r="B430" s="2"/>
       <c r="C430" s="19"/>
       <c r="D430" s="20"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="27"/>
-      <c r="B431" s="3"/>
+      <c r="A431" s="33"/>
+      <c r="B431" s="2"/>
       <c r="C431" s="19"/>
       <c r="D431" s="20"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="27"/>
-      <c r="B432" s="3"/>
+      <c r="A432" s="33"/>
+      <c r="B432" s="2"/>
       <c r="C432" s="19"/>
       <c r="D432" s="20"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="27"/>
-      <c r="B433" s="3"/>
+      <c r="A433" s="33"/>
+      <c r="B433" s="2"/>
       <c r="C433" s="19"/>
       <c r="D433" s="20"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="27"/>
-      <c r="B434" s="3"/>
+      <c r="A434" s="33"/>
+      <c r="B434" s="2"/>
       <c r="C434" s="19"/>
       <c r="D434" s="20"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="27"/>
-      <c r="B435" s="3"/>
+      <c r="A435" s="33"/>
+      <c r="B435" s="2"/>
       <c r="C435" s="19"/>
       <c r="D435" s="20"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="27"/>
-      <c r="B436" s="3"/>
+      <c r="A436" s="33"/>
+      <c r="B436" s="2"/>
       <c r="C436" s="19"/>
       <c r="D436" s="20"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="27"/>
-      <c r="B437" s="3"/>
+      <c r="A437" s="33"/>
+      <c r="B437" s="2"/>
       <c r="C437" s="19"/>
       <c r="D437" s="20"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="27"/>
-      <c r="B438" s="3"/>
+      <c r="A438" s="33"/>
+      <c r="B438" s="2"/>
       <c r="C438" s="19"/>
       <c r="D438" s="20"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="27"/>
-      <c r="B439" s="3"/>
+      <c r="A439" s="33"/>
+      <c r="B439" s="2"/>
       <c r="C439" s="19"/>
       <c r="D439" s="20"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="27"/>
-      <c r="B440" s="3"/>
+      <c r="A440" s="33"/>
+      <c r="B440" s="2"/>
       <c r="C440" s="19"/>
       <c r="D440" s="20"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="27"/>
-      <c r="B441" s="3"/>
+      <c r="A441" s="33"/>
+      <c r="B441" s="2"/>
       <c r="C441" s="19"/>
       <c r="D441" s="20"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="27"/>
-      <c r="B442" s="3"/>
+      <c r="A442" s="33"/>
+      <c r="B442" s="2"/>
       <c r="C442" s="19"/>
       <c r="D442" s="20"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="27"/>
-      <c r="B443" s="3"/>
+      <c r="A443" s="33"/>
+      <c r="B443" s="2"/>
       <c r="C443" s="19"/>
       <c r="D443" s="20"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="27"/>
-      <c r="B444" s="3"/>
+      <c r="A444" s="33"/>
+      <c r="B444" s="2"/>
       <c r="C444" s="19"/>
       <c r="D444" s="20"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="27"/>
-      <c r="B445" s="3"/>
+      <c r="A445" s="33"/>
+      <c r="B445" s="2"/>
       <c r="C445" s="19"/>
       <c r="D445" s="20"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="27"/>
-      <c r="B446" s="3"/>
+      <c r="A446" s="33"/>
+      <c r="B446" s="2"/>
       <c r="C446" s="19"/>
       <c r="D446" s="20"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="27"/>
-      <c r="B447" s="3"/>
+      <c r="A447" s="33"/>
+      <c r="B447" s="2"/>
       <c r="C447" s="19"/>
       <c r="D447" s="20"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="27"/>
-      <c r="B448" s="3"/>
+      <c r="A448" s="33"/>
+      <c r="B448" s="2"/>
       <c r="C448" s="19"/>
       <c r="D448" s="20"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="27"/>
-      <c r="B449" s="3"/>
+      <c r="A449" s="33"/>
+      <c r="B449" s="2"/>
       <c r="C449" s="19"/>
       <c r="D449" s="20"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="27"/>
-      <c r="B450" s="3"/>
+      <c r="A450" s="33"/>
+      <c r="B450" s="2"/>
       <c r="C450" s="19"/>
       <c r="D450" s="20"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="27"/>
-      <c r="B451" s="3"/>
+      <c r="A451" s="33"/>
+      <c r="B451" s="2"/>
       <c r="C451" s="19"/>
       <c r="D451" s="20"/>
     </row>
@@ -7335,246 +7496,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1729.0</v>
       </c>
       <c r="C2">
         <f>0.8+(rand()*0.1)</f>
-        <v>0.8486443912</v>
+        <v>0.8234569298</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>41641.0</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B22" si="1">B2*0.85</f>
         <v>1469.65</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>41642.0</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
         <v>1249.2025</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>41643.0</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
         <v>1061.822125</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>41644.0</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
         <v>902.5488063</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>41645.0</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
         <v>767.1664853</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>41646.0</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
         <v>652.0915125</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>41647.0</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
         <v>554.2777856</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>41648.0</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
         <v>471.1361178</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>41649.0</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
         <v>400.4657001</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.840640564686605</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>41650.0</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
         <v>340.3958451</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.8120924338065232</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>41651.0</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
         <v>289.3364683</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.8397426905409576</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>42005.0</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
         <v>245.9359981</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.8665994896522844</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>42006.0</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
         <v>209.0455984</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>0.8728377104205218</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>42007.0</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
         <v>177.6887586</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.8384746249236523</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>42008.0</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
         <v>151.0354448</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>0.897122425227442</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>42009.0</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
         <v>128.3801281</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.8504132634945307</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>42010.0</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
         <v>109.1231089</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>0.8306252868166671</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>42011.0</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
         <v>92.75464255</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>0.8746057037198744</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>42012.0</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
         <v>78.84144617</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>0.8188740084153701</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>42013.0</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
         <v>67.01522925</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0.8478076022135504</v>
       </c>
     </row>
@@ -8572,457 +8733,457 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <f t="shared" ref="B2:B22" si="1">round(2500+(rand()*1000))</f>
-        <v>2844</v>
-      </c>
-      <c r="C2" s="6">
+        <v>3243</v>
+      </c>
+      <c r="C2" s="8">
         <v>14765.0</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D22" si="2">0.9+(rand()*0.05)</f>
-        <v>0.9172701861</v>
+        <v>0.9303439134</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E22" si="3">round(C2*(1-D2))</f>
-        <v>1222</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>41641.0</v>
       </c>
-      <c r="B3" s="6">
-        <f t="shared" si="1"/>
-        <v>3052</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="8">
+        <f t="shared" si="1"/>
+        <v>3468</v>
+      </c>
+      <c r="C3" s="8">
         <f t="shared" ref="C3:C22" si="4">C2+B3-E2</f>
-        <v>16595</v>
+        <v>17205</v>
       </c>
       <c r="D3">
         <f t="shared" si="2"/>
-        <v>0.9382554014</v>
+        <v>0.9114675096</v>
       </c>
       <c r="E3">
         <f t="shared" si="3"/>
-        <v>1025</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>41642.0</v>
       </c>
-      <c r="B4" s="6">
-        <f t="shared" si="1"/>
-        <v>3181</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="8">
+        <f t="shared" si="1"/>
+        <v>2865</v>
+      </c>
+      <c r="C4" s="8">
         <f t="shared" si="4"/>
-        <v>18751</v>
+        <v>18547</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>0.9156788128</v>
+        <v>0.902215527</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>1581</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>41643.0</v>
       </c>
-      <c r="B5" s="6">
-        <f t="shared" si="1"/>
-        <v>2806</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="8">
+        <f t="shared" si="1"/>
+        <v>3342</v>
+      </c>
+      <c r="C5" s="8">
         <f t="shared" si="4"/>
-        <v>19976</v>
+        <v>20075</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>0.9119259772</v>
+        <v>0.903652388</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>1759</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>41644.0</v>
       </c>
-      <c r="B6" s="6">
-        <f t="shared" si="1"/>
-        <v>3136</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="B6" s="8">
+        <f t="shared" si="1"/>
+        <v>2584</v>
+      </c>
+      <c r="C6" s="8">
         <f t="shared" si="4"/>
-        <v>21353</v>
+        <v>20725</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>0.934229</v>
+        <v>0.9276165436</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>1404</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>41645.0</v>
       </c>
-      <c r="B7" s="6">
-        <f t="shared" si="1"/>
-        <v>3254</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="8">
+        <f t="shared" si="1"/>
+        <v>2991</v>
+      </c>
+      <c r="C7" s="8">
         <f t="shared" si="4"/>
-        <v>23203</v>
+        <v>22216</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>0.9205026331</v>
+        <v>0.9162828228</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>1845</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>41646.0</v>
       </c>
-      <c r="B8" s="6">
-        <f t="shared" si="1"/>
-        <v>3267</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="B8" s="8">
+        <f t="shared" si="1"/>
+        <v>2659</v>
+      </c>
+      <c r="C8" s="8">
         <f t="shared" si="4"/>
-        <v>24625</v>
+        <v>23015</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>0.9080449461</v>
+        <v>0.9175645613</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>2264</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>41647.0</v>
       </c>
-      <c r="B9" s="6">
-        <f t="shared" si="1"/>
-        <v>2505</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="8">
+        <f t="shared" si="1"/>
+        <v>2718</v>
+      </c>
+      <c r="C9" s="8">
         <f t="shared" si="4"/>
-        <v>24866</v>
+        <v>23836</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>0.9105494315</v>
+        <v>0.9321983675</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>2224</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>41648.0</v>
       </c>
-      <c r="B10" s="6">
-        <f t="shared" si="1"/>
-        <v>2515</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="B10" s="8">
+        <f t="shared" si="1"/>
+        <v>2694</v>
+      </c>
+      <c r="C10" s="8">
         <f t="shared" si="4"/>
-        <v>25157</v>
+        <v>24914</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0.9229673331</v>
+        <v>0.9425904528</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>1938</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>41649.0</v>
       </c>
-      <c r="B11" s="6">
-        <f t="shared" si="1"/>
-        <v>3324</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="8">
+        <f t="shared" si="1"/>
+        <v>2666</v>
+      </c>
+      <c r="C11" s="8">
         <f t="shared" si="4"/>
-        <v>26543</v>
+        <v>26150</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>0.9147739812</v>
+        <v>0.9148192641</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>2262</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>41650.0</v>
       </c>
-      <c r="B12" s="6">
-        <f t="shared" si="1"/>
-        <v>2655</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="8">
+        <f t="shared" si="1"/>
+        <v>2830</v>
+      </c>
+      <c r="C12" s="8">
         <f t="shared" si="4"/>
-        <v>26936</v>
+        <v>26753</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>0.9005654417</v>
+        <v>0.9015268291</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>2678</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>41651.0</v>
       </c>
-      <c r="B13" s="6">
-        <f t="shared" si="1"/>
-        <v>3239</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="8">
+        <f t="shared" si="1"/>
+        <v>2575</v>
+      </c>
+      <c r="C13" s="8">
         <f t="shared" si="4"/>
-        <v>27497</v>
+        <v>26694</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>0.9005937844</v>
+        <v>0.9304733522</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>2733</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="6">
-        <f t="shared" si="1"/>
-        <v>2831</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="B14" s="8">
+        <f t="shared" si="1"/>
+        <v>2840</v>
+      </c>
+      <c r="C14" s="8">
         <f t="shared" si="4"/>
-        <v>27595</v>
+        <v>27678</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0.9148538333</v>
+        <v>0.9355374577</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>2350</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>42006.0</v>
       </c>
-      <c r="B15" s="6">
-        <f t="shared" si="1"/>
-        <v>3152</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="8">
+        <f t="shared" si="1"/>
+        <v>3173</v>
+      </c>
+      <c r="C15" s="8">
         <f t="shared" si="4"/>
-        <v>28397</v>
+        <v>29067</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>0.9473736842</v>
+        <v>0.9300616706</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>1494</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>42007.0</v>
       </c>
-      <c r="B16" s="6">
-        <f t="shared" si="1"/>
-        <v>3020</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="B16" s="8">
+        <f t="shared" si="1"/>
+        <v>3429</v>
+      </c>
+      <c r="C16" s="8">
         <f t="shared" si="4"/>
-        <v>29923</v>
+        <v>30463</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>0.9409320023</v>
+        <v>0.9094101854</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>1767</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>42008.0</v>
       </c>
-      <c r="B17" s="6">
-        <f t="shared" si="1"/>
-        <v>2839</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="8">
+        <f t="shared" si="1"/>
+        <v>3379</v>
+      </c>
+      <c r="C17" s="8">
         <f t="shared" si="4"/>
-        <v>30995</v>
+        <v>31082</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>0.9092522388</v>
+        <v>0.9051460533</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>2813</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>42009.0</v>
       </c>
-      <c r="B18" s="6">
-        <f t="shared" si="1"/>
-        <v>3470</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="8">
+        <f t="shared" si="1"/>
+        <v>2677</v>
+      </c>
+      <c r="C18" s="8">
         <f t="shared" si="4"/>
-        <v>31652</v>
+        <v>30811</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>0.9465435463</v>
+        <v>0.9321742458</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>1692</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>42010.0</v>
       </c>
-      <c r="B19" s="6">
-        <f t="shared" si="1"/>
-        <v>3313</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="8">
+        <f t="shared" si="1"/>
+        <v>2857</v>
+      </c>
+      <c r="C19" s="8">
         <f t="shared" si="4"/>
-        <v>33273</v>
+        <v>31578</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>0.9444748135</v>
+        <v>0.9357120456</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>1847</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>42011.0</v>
       </c>
-      <c r="B20" s="6">
-        <f t="shared" si="1"/>
-        <v>3035</v>
-      </c>
-      <c r="C20" s="6">
+      <c r="B20" s="8">
+        <f t="shared" si="1"/>
+        <v>2710</v>
+      </c>
+      <c r="C20" s="8">
         <f t="shared" si="4"/>
-        <v>34461</v>
+        <v>32258</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>0.9474904844</v>
+        <v>0.9221276264</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>1810</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>42012.0</v>
       </c>
-      <c r="B21" s="6">
-        <f t="shared" si="1"/>
-        <v>3329</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="8">
+        <f t="shared" si="1"/>
+        <v>3164</v>
+      </c>
+      <c r="C21" s="8">
         <f t="shared" si="4"/>
-        <v>35980</v>
+        <v>32910</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>0.9295941733</v>
+        <v>0.9079202167</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>2533</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>42013.0</v>
       </c>
-      <c r="B22" s="6">
-        <f t="shared" si="1"/>
-        <v>2852</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="8">
+        <f t="shared" si="1"/>
+        <v>2617</v>
+      </c>
+      <c r="C22" s="8">
         <f t="shared" si="4"/>
-        <v>36299</v>
+        <v>32497</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>0.9333540788</v>
+        <v>0.9456233501</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>2419</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -10021,219 +10182,219 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3">
+      <c r="A1" s="2">
         <v>1.0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>11.0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>2.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>13.0</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>3.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>19.0</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>4.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>25.0</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>5.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>41.0</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>6.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>52.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>7.0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>56.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>8.0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>62.0</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>19</v>
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>9.0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>70.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>10.0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>70.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>11.0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>73.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>12.0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>80.0</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>13.0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>82.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>14.0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>90.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>15.0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>90.0</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>21</v>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="A19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5">
         <v>11.0</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="5">
         <v>11.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
         <v>25.0</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="5">
         <v>25.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="13">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
         <v>62.0</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="5">
         <v>62.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="13">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5">
         <v>80.0</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="6">
         <v>80.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
         <v>90.0</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="5">
         <v>90.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>3</v>
+      <c r="A24" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C24">
         <f>SUM(C1:C15)/15</f>
@@ -10241,26 +10402,26 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>26</v>
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3"/>
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26">
         <f>VAR(C1:C15)</f>
         <v>765.9714286</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>4</v>
+      <c r="A27" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C27">
         <f>STDEV(C1:C15)</f>
@@ -11272,231 +11433,231 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4">
         <v>42.52969488008013</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>33.939543567649935</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>-67.48296218443733</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
         <v>45.994653452643675</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>131.82554270335078</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>48.03344637430358</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
         <v>46.940900496643835</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>48.51592545343215</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>45.81786110977082</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
         <v>56.8063640957629</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>105.30393237702904</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>66.63750775379533</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
         <v>65.41830625310372</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>47.526420146814935</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>92.3570532790751</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
         <v>49.19559417167815</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>22.297659614488875</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>6.592593225082027</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4">
         <v>50.536165382875396</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>59.64785673626626</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>-16.860193313854282</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
         <v>47.868654346659405</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>32.54981044375397</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>47.18446743073918</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
         <v>58.277455932803015</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>46.0306078815426</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>32.08338382269347</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4">
         <v>68.47447078638737</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>35.08071306402267</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>14.86518477878721</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4">
         <v>49.78329012666058</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>58.08849782621302</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>70.61646316431859</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4">
         <v>55.01687159001651</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <v>25.751536123263215</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>33.223205013578934</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4">
         <v>51.39379307298033</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <v>66.47406672024196</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>-33.46526636076436</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4">
         <v>44.9951083074412</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>60.44758400085626</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="4">
         <v>146.15545132201643</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
         <v>27.99235358145077</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>18.052238430523513</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="4">
         <v>132.89793787201398</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
         <v>60.162279107897085</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>56.858260763847824</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>127.47861515275628</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4">
         <v>50.98938458539873</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>35.13522370850919</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>42.50284908408327</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4">
         <v>44.33675358906804</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>87.94169506914047</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>9.132387318042312</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>3</v>
+      <c r="A21" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>4</v>
+      <c r="A22" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -12494,427 +12655,430 @@
     <col customWidth="1" min="3" max="3" width="10.29"/>
     <col customWidth="1" min="4" max="4" width="8.29"/>
     <col customWidth="1" min="5" max="5" width="8.57"/>
-    <col customWidth="1" min="6" max="6" width="8.29"/>
-    <col customWidth="1" min="7" max="7" width="12.14"/>
-    <col customWidth="1" min="8" max="11" width="8.29"/>
+    <col customWidth="1" min="6" max="6" width="12.0"/>
+    <col customWidth="1" min="7" max="7" width="17.86"/>
+    <col customWidth="1" min="8" max="8" width="12.86"/>
+    <col customWidth="1" min="9" max="11" width="8.29"/>
     <col customWidth="1" min="12" max="14" width="9.29"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="B1" s="4" t="s">
-        <v>5</v>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7">
         <v>41286.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>41640.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="7">
         <v>41641.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="7">
         <v>41642.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="7">
         <v>41643.0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="7">
         <v>41644.0</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="7">
         <v>41645.0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>41646.0</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="7">
         <v>41647.0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="7">
         <v>41648.0</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <v>41649.0</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="7">
         <v>41650.0</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="7">
         <v>41651.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="8">
         <v>11729.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>12315.45</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>13670.149500000001</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="8">
         <v>15310.567440000003</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="8">
         <v>17300.9412072</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="8">
         <v>19723.072976208005</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="8">
         <v>21695.380273828807</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="8">
         <v>25600.54872311799</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="8">
         <v>27136.58164650507</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="8">
         <v>29578.87399469053</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="8">
         <v>33719.91635394721</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="8">
         <v>39452.30213411823</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="9">
         <v>43003.009326188876</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10">
         <f t="shared" ref="C5:N5" si="1">(C4-B4)/B4</f>
         <v>0.05</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <f t="shared" si="1"/>
         <v>0.11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
         <f t="shared" si="1"/>
         <v>0.13</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>0.14</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="10">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="10">
         <f t="shared" si="1"/>
         <v>0.06</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="10">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="10">
         <f t="shared" si="1"/>
         <v>0.14</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="10">
         <f t="shared" si="1"/>
         <v>0.17</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="10">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <f t="shared" ref="C6:N6" si="2">C5+1</f>
         <v>1.05</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <f t="shared" si="2"/>
         <v>1.11</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
         <f t="shared" si="2"/>
         <v>1.12</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <f t="shared" si="2"/>
         <v>1.13</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <f t="shared" si="2"/>
         <v>1.14</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="10">
         <f t="shared" si="2"/>
         <v>1.1</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
         <v>1.18</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="10">
         <f t="shared" si="2"/>
         <v>1.06</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="10">
         <f t="shared" si="2"/>
         <v>1.09</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="10">
         <f t="shared" si="2"/>
         <v>1.14</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="10">
         <f t="shared" si="2"/>
         <v>1.17</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="10">
         <f t="shared" si="2"/>
         <v>1.09</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="9">
-        <f t="shared" ref="C8:N8" si="3">$B$16</f>
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" ref="C8:N8" si="3">$C$16</f>
         <v>0.1143453928</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="12">
         <f t="shared" si="3"/>
         <v>0.1143453928</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7">
         <v>41286.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>41640.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <v>41641.0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="7">
         <v>41642.0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="7">
         <v>41643.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="7">
         <v>41644.0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="7">
         <v>41645.0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="7">
         <v>41646.0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="7">
         <v>41647.0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="7">
         <v>41648.0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="7">
         <v>41649.0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="7">
         <v>41650.0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="7">
         <v>41651.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8">
         <f>B4</f>
         <v>11729</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <f t="shared" ref="C10:N10" si="4">B10*(1+C8)</f>
         <v>13070.15711</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <f t="shared" si="4"/>
         <v>14564.66936</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <f t="shared" si="4"/>
         <v>16230.0722</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="8">
         <f t="shared" si="4"/>
         <v>18085.90618</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="8">
         <f t="shared" si="4"/>
         <v>20153.94623</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <f t="shared" si="4"/>
         <v>22458.45712</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="8">
         <f t="shared" si="4"/>
         <v>25026.47823</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <f t="shared" si="4"/>
         <v>27888.14071</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="8">
         <f t="shared" si="4"/>
         <v>31077.02111</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="8">
         <f t="shared" si="4"/>
         <v>34630.5353</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="8">
         <f t="shared" si="4"/>
         <v>38590.37746</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="9">
         <f t="shared" si="4"/>
         <v>43003.00933</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>10</v>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="3">
-        <f>H16</f>
+      <c r="B16" s="2"/>
+      <c r="C16" s="12">
+        <f>H17</f>
         <v>0.1143453928</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="F16">
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="B17" s="2"/>
+      <c r="C17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17">
         <f>PRODUCT(C6:N6)</f>
         <v>3.666383266</v>
       </c>
-      <c r="G16">
-        <f>POWER(F16,1/12)</f>
+      <c r="G17">
+        <f>POWER(F17,1/12)</f>
         <v>1.114345393</v>
       </c>
-      <c r="H16">
-        <f>G16-1</f>
+      <c r="H17">
+        <f>G17-1</f>
         <v>0.1143453928</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="I17" s="3"/>
-      <c r="L17" s="11"/>
+      <c r="I17" s="2"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="L18" s="11"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -13920,25 +14084,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="C2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>50.0</v>
       </c>
       <c r="E3">
         <f>(C3+G3)/2</f>
         <v>75</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>100.0</v>
       </c>
     </row>
@@ -13954,19 +14118,19 @@
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>50.0</v>
       </c>
       <c r="E7">
-        <f>sqrt(C7*G7)</f>
+        <f>SQRT(C7*G7)</f>
         <v>70.71067812</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>100.0</v>
       </c>
     </row>
@@ -13982,19 +14146,19 @@
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="E10" s="3" t="s">
-        <v>15</v>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>50.0</v>
       </c>
       <c r="E11">
         <f>2/((1/C11)+(1/G11))</f>
         <v>66.66666667</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>100.0</v>
       </c>
     </row>
@@ -15016,276 +15180,276 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="4" t="s">
-        <v>28</v>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
         <f t="shared" ref="C3:M3" si="1">RANDBETWEEN(8,12)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="E3" s="3">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="F3" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="G3" s="3">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="L3" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="M3" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L3" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>30</v>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="P3">
         <f>AVERAGE(C3:M3)</f>
-        <v>10.45454545</v>
+        <v>9.545454545</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="B4" s="3" t="s">
-        <v>31</v>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C4">
         <f>C3</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:M4" si="2">C4+D3</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K4">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="3" t="s">
-        <v>32</v>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="15">
         <f>P3</f>
-        <v>10.45454545</v>
+        <v>9.545454545</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" ref="D5:M5" si="3">C5+$P$3</f>
-        <v>20.90909091</v>
+        <v>19.09090909</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="3"/>
-        <v>31.36363636</v>
+        <v>28.63636364</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="3"/>
-        <v>41.81818182</v>
+        <v>38.18181818</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="3"/>
-        <v>52.27272727</v>
+        <v>47.72727273</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="3"/>
-        <v>62.72727273</v>
+        <v>57.27272727</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="3"/>
-        <v>73.18181818</v>
+        <v>66.81818182</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="3"/>
-        <v>83.63636364</v>
+        <v>76.36363636</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="3"/>
-        <v>94.09090909</v>
+        <v>85.90909091</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="3"/>
-        <v>104.5454545</v>
+        <v>95.45454545</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="3"/>
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="B9" s="4" t="s">
-        <v>33</v>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" ref="C10:M10" si="4">rand()*2</f>
-        <v>0.8239959104</v>
-      </c>
-      <c r="D10" s="3">
+        <v>1.435170241</v>
+      </c>
+      <c r="D10" s="2">
         <f t="shared" si="4"/>
-        <v>0.4536176769</v>
-      </c>
-      <c r="E10" s="3">
+        <v>0.3900690607</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="4"/>
-        <v>1.849704136</v>
-      </c>
-      <c r="F10" s="3">
+        <v>0.4241763658</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="4"/>
-        <v>0.636187632</v>
-      </c>
-      <c r="G10" s="3">
+        <v>1.87910693</v>
+      </c>
+      <c r="G10" s="2">
         <f t="shared" si="4"/>
-        <v>1.032445282</v>
-      </c>
-      <c r="H10" s="3">
+        <v>0.9371257124</v>
+      </c>
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
-        <v>1.32423756</v>
-      </c>
-      <c r="I10" s="3">
+        <v>0.9523626421</v>
+      </c>
+      <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>1.129427859</v>
-      </c>
-      <c r="J10" s="3">
+        <v>0.02592281201</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>0.4726268433</v>
-      </c>
-      <c r="K10" s="3">
+        <v>1.659981783</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>0.510342272</v>
-      </c>
-      <c r="L10" s="3">
+        <v>1.55841822</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>1.306151076</v>
-      </c>
-      <c r="M10" s="3">
+        <v>0.8433348263</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
-        <v>0.8894438072</v>
-      </c>
-      <c r="O10" s="3"/>
+        <v>1.935965754</v>
+      </c>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="B11" s="3" t="s">
-        <v>31</v>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C11">
         <f>C10</f>
-        <v>0.8239959104</v>
+        <v>1.435170241</v>
       </c>
       <c r="D11">
         <f t="shared" ref="D11:M11" si="5">C11*D10</f>
-        <v>0.3737791106</v>
+        <v>0.5598155077</v>
       </c>
       <c r="E11">
         <f t="shared" si="5"/>
-        <v>0.6913807669</v>
+        <v>0.2374605075</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>0.4398478929</v>
+        <v>0.4462136854</v>
       </c>
       <c r="G11">
         <f t="shared" si="5"/>
-        <v>0.4541188817</v>
+        <v>0.4181583178</v>
       </c>
       <c r="H11">
         <f t="shared" si="5"/>
-        <v>0.6013612797</v>
+        <v>0.3982383603</v>
       </c>
       <c r="I11">
         <f t="shared" si="5"/>
-        <v>0.6791941826</v>
+        <v>0.01032345815</v>
       </c>
       <c r="J11">
         <f t="shared" si="5"/>
-        <v>0.3210054025</v>
+        <v>0.01713675247</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>0.1638226264</v>
+        <v>0.02670622728</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
-        <v>0.2139770997</v>
+        <v>0.02252229154</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>0.1903206063</v>
+        <v>0.04360238513</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="B12" s="3" t="s">
-        <v>32</v>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="15" t="str">
         <f>P10</f>
@@ -16336,410 +16500,410 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>2602.0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="8">
         <v>14765.0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <f t="shared" ref="D2:D21" si="1">C2+B2-C3</f>
         <v>587</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="12">
         <f t="shared" ref="E2:E21" si="2">D2/C2</f>
         <v>0.03975618016</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>41641.0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>3177.0</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="8">
         <v>16780.0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <f t="shared" si="1"/>
         <v>835</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <f t="shared" si="2"/>
         <v>0.04976162098</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>41642.0</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="8">
         <v>3374.0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="8">
         <v>19122.0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <f t="shared" si="1"/>
         <v>1863</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <f t="shared" si="2"/>
         <v>0.09742704738</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>41643.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>2742.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>20633.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <f t="shared" si="1"/>
         <v>583</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <f t="shared" si="2"/>
         <v>0.02825570688</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>41644.0</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>3418.0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="8">
         <v>22792.0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <f t="shared" si="1"/>
         <v>1797</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="12">
         <f t="shared" si="2"/>
         <v>0.07884345384</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>41645.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>2778.0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>24413.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <f t="shared" si="1"/>
         <v>1744</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="12">
         <f t="shared" si="2"/>
         <v>0.07143734895</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>41646.0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="8">
         <v>2804.0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="8">
         <v>25447.0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <f t="shared" si="2"/>
         <v>0.05658820293</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>41647.0</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="8">
         <v>3190.0</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="8">
         <v>26811.0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <f t="shared" si="1"/>
         <v>2360</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <f t="shared" si="2"/>
         <v>0.08802357241</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>41648.0</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="8">
         <v>3000.0</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="8">
         <v>27641.0</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <f t="shared" si="1"/>
         <v>2918</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="12">
         <f t="shared" si="2"/>
         <v>0.1055678159</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>41649.0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="8">
         <v>2634.0</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="8">
         <v>27723.0</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <f t="shared" si="1"/>
         <v>2175</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="12">
         <f t="shared" si="2"/>
         <v>0.07845471269</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>41650.0</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>2514.0</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>28182.0</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <f t="shared" si="1"/>
         <v>1970</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="12">
         <f t="shared" si="2"/>
         <v>0.06990277482</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>41651.0</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>3200.0</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="8">
         <v>28726.0</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
         <f t="shared" si="1"/>
         <v>2701</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="12">
         <f t="shared" si="2"/>
         <v>0.09402631762</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>42005.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="8">
         <v>2884.0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>29225.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="12">
         <f t="shared" si="2"/>
         <v>0.04619332763</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>42006.0</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="8">
         <v>3363.0</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <v>30759.0</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="8">
         <f t="shared" si="1"/>
         <v>1906</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="12">
         <f t="shared" si="2"/>
         <v>0.06196560356</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>42007.0</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="8">
         <v>3220.0</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>32216.0</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="8">
         <f t="shared" si="1"/>
         <v>3326</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="12">
         <f t="shared" si="2"/>
         <v>0.1032406258</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>42008.0</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="8">
         <v>2908.0</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>32110.0</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="8">
         <f t="shared" si="1"/>
         <v>2497</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="12">
         <f t="shared" si="2"/>
         <v>0.07776393647</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>42009.0</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>2616.0</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="8">
         <v>32521.0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>3072</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="12">
         <f t="shared" si="2"/>
         <v>0.09446203991</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>42010.0</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="8">
         <v>2762.0</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="8">
         <v>32065.0</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <f t="shared" si="1"/>
         <v>1396</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="12">
         <f t="shared" si="2"/>
         <v>0.04353656635</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>42011.0</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="8">
         <v>3276.0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="8">
         <v>33431.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>3046</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="12">
         <f t="shared" si="2"/>
         <v>0.0911130388</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>42012.0</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8">
         <v>3401.0</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="8">
         <v>33661.0</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
         <f t="shared" si="1"/>
         <v>2590</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="12">
         <f t="shared" si="2"/>
         <v>0.07694364398</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>42013.0</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>3481.0</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="8">
         <v>34472.0</v>
       </c>
     </row>
@@ -17739,43 +17903,43 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="7">
         <v>41640.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1729.0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2">
         <v>2000.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="7">
         <v>41641.0</v>
       </c>
       <c r="B3">
         <v>1522.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="10">
         <f t="shared" ref="C3:C22" si="1">(B2-B3)/B2</f>
         <v>0.1197223829</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="10">
         <f t="shared" ref="D3:D22" si="2">(1-C3)</f>
         <v>0.8802776171</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E22" si="3">$E$24</f>
         <v>0.8547976381</v>
       </c>
@@ -17789,21 +17953,21 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="7">
         <v>41642.0</v>
       </c>
       <c r="B4">
         <v>1366.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <f t="shared" si="1"/>
         <v>0.1024967148</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <f t="shared" si="2"/>
         <v>0.8975032852</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -17817,21 +17981,21 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="7">
         <v>41643.0</v>
       </c>
       <c r="B5">
         <v>1209.0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="10">
         <f t="shared" si="1"/>
         <v>0.1149341142</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <f t="shared" si="2"/>
         <v>0.8850658858</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -17845,21 +18009,21 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>41644.0</v>
       </c>
       <c r="B6">
         <v>972.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <f t="shared" si="1"/>
         <v>0.1960297767</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <f t="shared" si="2"/>
         <v>0.8039702233</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -17873,21 +18037,21 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="7">
         <v>41645.0</v>
       </c>
       <c r="B7">
         <v>834.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <f t="shared" si="1"/>
         <v>0.1419753086</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="10">
         <f t="shared" si="2"/>
         <v>0.8580246914</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -17901,21 +18065,21 @@
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="7">
         <v>41646.0</v>
       </c>
       <c r="B8">
         <v>750.0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <f t="shared" si="1"/>
         <v>0.1007194245</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <f t="shared" si="2"/>
         <v>0.8992805755</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -17929,21 +18093,21 @@
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="7">
         <v>41647.0</v>
       </c>
       <c r="B9">
         <v>661.0</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <f t="shared" si="1"/>
         <v>0.1186666667</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <f t="shared" si="2"/>
         <v>0.8813333333</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -17957,21 +18121,21 @@
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="7">
         <v>41648.0</v>
       </c>
       <c r="B10">
         <v>530.0</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <f t="shared" si="1"/>
         <v>0.1981845688</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="10">
         <f t="shared" si="2"/>
         <v>0.8018154312</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -17985,21 +18149,21 @@
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="7">
         <v>41649.0</v>
       </c>
       <c r="B11">
         <v>446.0</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <f t="shared" si="1"/>
         <v>0.158490566</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <f t="shared" si="2"/>
         <v>0.841509434</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18013,21 +18177,21 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="7">
         <v>41650.0</v>
       </c>
       <c r="B12">
         <v>362.0</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <f t="shared" si="1"/>
         <v>0.1883408072</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <f t="shared" si="2"/>
         <v>0.8116591928</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18041,21 +18205,21 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="7">
         <v>41651.0</v>
       </c>
       <c r="B13">
         <v>304.0</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <f t="shared" si="1"/>
         <v>0.1602209945</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="10">
         <f t="shared" si="2"/>
         <v>0.8397790055</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18069,21 +18233,21 @@
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="7">
         <v>42005.0</v>
       </c>
       <c r="B14">
         <v>263.0</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <f t="shared" si="1"/>
         <v>0.1348684211</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <f t="shared" si="2"/>
         <v>0.8651315789</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18097,21 +18261,21 @@
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="7">
         <v>42006.0</v>
       </c>
       <c r="B15">
         <v>230.0</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <f t="shared" si="1"/>
         <v>0.1254752852</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="10">
         <f t="shared" si="2"/>
         <v>0.8745247148</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18125,21 +18289,21 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <v>42007.0</v>
       </c>
       <c r="B16">
         <v>193.0</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <f t="shared" si="1"/>
         <v>0.1608695652</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="10">
         <f t="shared" si="2"/>
         <v>0.8391304348</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18153,21 +18317,21 @@
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="7">
         <v>42008.0</v>
       </c>
       <c r="B17">
         <v>173.0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <f t="shared" si="1"/>
         <v>0.103626943</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="10">
         <f t="shared" si="2"/>
         <v>0.896373057</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18181,21 +18345,21 @@
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>42009.0</v>
       </c>
       <c r="B18">
         <v>147.0</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <f t="shared" si="1"/>
         <v>0.1502890173</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="10">
         <f t="shared" si="2"/>
         <v>0.8497109827</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18209,21 +18373,21 @@
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="7">
         <v>42010.0</v>
       </c>
       <c r="B19">
         <v>122.0</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="10">
         <f t="shared" si="1"/>
         <v>0.1700680272</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="10">
         <f t="shared" si="2"/>
         <v>0.8299319728</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18237,21 +18401,21 @@
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="7">
         <v>42011.0</v>
       </c>
       <c r="B20">
         <v>107.0</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="10">
         <f t="shared" si="1"/>
         <v>0.1229508197</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="10">
         <f t="shared" si="2"/>
         <v>0.8770491803</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18265,21 +18429,21 @@
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5">
+      <c r="A21" s="7">
         <v>42012.0</v>
       </c>
       <c r="B21">
         <v>88.0</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="10">
         <f t="shared" si="1"/>
         <v>0.1775700935</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <f t="shared" si="2"/>
         <v>0.8224299065</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18293,21 +18457,21 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5">
+      <c r="A22" s="7">
         <v>42013.0</v>
       </c>
       <c r="B22">
         <v>75.0</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="10">
         <f t="shared" si="1"/>
         <v>0.1477272727</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="10">
         <f t="shared" si="2"/>
         <v>0.8522727273</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="12">
         <f t="shared" si="3"/>
         <v>0.8547976381</v>
       </c>
@@ -18321,11 +18485,11 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="E23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>47</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="4"/>
@@ -18337,11 +18501,11 @@
         <f>PRODUCT(D3:D22)</f>
         <v>0.04337767496</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="12">
         <f>POWER(D24,1/20)</f>
         <v>0.8547976381</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="12">
         <f>1-E24</f>
         <v>0.1452023619</v>
       </c>
@@ -19381,13 +19545,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3">
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -19404,18 +19568,18 @@
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
+      <c r="A4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>44</v>
+      <c r="A5" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
+      <c r="A6" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
